--- a/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
@@ -9,11 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="хлорне вапно" sheetId="1" r:id="rId1"/>
     <sheet name="Бішофіт" sheetId="2" r:id="rId2"/>
+    <sheet name="Кальцій хлористий" sheetId="3" r:id="rId3"/>
+    <sheet name="Двуокис титану R-02" sheetId="4" r:id="rId4"/>
+    <sheet name="Канифоль сосновая" sheetId="5" r:id="rId5"/>
+    <sheet name="Сургуч почтовый" sheetId="6" r:id="rId6"/>
+    <sheet name="лабомід" sheetId="7" r:id="rId7"/>
+    <sheet name="Перекись водорода" sheetId="8" r:id="rId8"/>
+    <sheet name="Тринатрийфосфат" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="585">
   <si>
     <t>хлорне вапно</t>
   </si>
@@ -463,13 +470,1330 @@
   </si>
   <si>
     <t>хондромаг</t>
+  </si>
+  <si>
+    <t>кальцій хлористий</t>
+  </si>
+  <si>
+    <t>кальций хлористый</t>
+  </si>
+  <si>
+    <t>хлористый кальций</t>
+  </si>
+  <si>
+    <t>хлорид кальция</t>
+  </si>
+  <si>
+    <t>хлористий кальцій</t>
+  </si>
+  <si>
+    <t>кальций хлорид</t>
+  </si>
+  <si>
+    <t>10 процентный раствор хлористого кальция</t>
+  </si>
+  <si>
+    <t>10 раствор хлористого кальция</t>
+  </si>
+  <si>
+    <t>10 хлористый кальций</t>
+  </si>
+  <si>
+    <t>5 хлористый кальций</t>
+  </si>
+  <si>
+    <t>cacl2 цена</t>
+  </si>
+  <si>
+    <t>гост 450 77</t>
+  </si>
+  <si>
+    <t>жидкий хлористый кальций</t>
+  </si>
+  <si>
+    <t>жидкое стекло и хлористый кальций</t>
+  </si>
+  <si>
+    <t>жидкое стекло хлорид кальция</t>
+  </si>
+  <si>
+    <t>зиракс кальций хлористый</t>
+  </si>
+  <si>
+    <t>кальций гранулированный</t>
+  </si>
+  <si>
+    <t>кальций пищевой</t>
+  </si>
+  <si>
+    <t>кальций хлор от аллергии</t>
+  </si>
+  <si>
+    <t>кальций хлор укол</t>
+  </si>
+  <si>
+    <t>кальций хлорид 1</t>
+  </si>
+  <si>
+    <t>кальций хлорид 10</t>
+  </si>
+  <si>
+    <t>кальций хлорид 10 процентный</t>
+  </si>
+  <si>
+    <t>кальций хлорид для детей</t>
+  </si>
+  <si>
+    <t>кальций хлорид для чего</t>
+  </si>
+  <si>
+    <t>кальций хлорид питьевой</t>
+  </si>
+  <si>
+    <t>кальций хлорид цена</t>
+  </si>
+  <si>
+    <t>кальций хлористый 10</t>
+  </si>
+  <si>
+    <t>кальций хлористый безводный</t>
+  </si>
+  <si>
+    <t>кальций хлористый безводный гост</t>
+  </si>
+  <si>
+    <t>кальций хлористый безводный для эксикатора</t>
+  </si>
+  <si>
+    <t>кальций хлористый гост</t>
+  </si>
+  <si>
+    <t>кальций хлористый гост 4460</t>
+  </si>
+  <si>
+    <t>кальций хлористый гост 450 77</t>
+  </si>
+  <si>
+    <t>кальций хлористый гранулированный</t>
+  </si>
+  <si>
+    <t>кальций хлористый двуводный</t>
+  </si>
+  <si>
+    <t>кальций хлористый для чего</t>
+  </si>
+  <si>
+    <t>кальций хлористый для эксикатора гост</t>
+  </si>
+  <si>
+    <t>кальций хлористый жидкий</t>
+  </si>
+  <si>
+    <t>кальций хлористый кальцинированный</t>
+  </si>
+  <si>
+    <t>кальций хлористый от кашля</t>
+  </si>
+  <si>
+    <t>кальций хлористый пищевой</t>
+  </si>
+  <si>
+    <t>кальций хлористый пищевой гост</t>
+  </si>
+  <si>
+    <t>кальций хлористый технический</t>
+  </si>
+  <si>
+    <t>кальций хлористый цена</t>
+  </si>
+  <si>
+    <t>кальция хлорид и хлористый кальций</t>
+  </si>
+  <si>
+    <t>кальция хлорид от кашля</t>
+  </si>
+  <si>
+    <t>от аллергии хлористый кальций</t>
+  </si>
+  <si>
+    <t>от чего кальция хлорид</t>
+  </si>
+  <si>
+    <t>питьевой хлористый кальций</t>
+  </si>
+  <si>
+    <t>пищевой кальций</t>
+  </si>
+  <si>
+    <t>препарат хлористый кальций</t>
+  </si>
+  <si>
+    <t>раствор кальций хлорид</t>
+  </si>
+  <si>
+    <t>раствор кальция хлористого</t>
+  </si>
+  <si>
+    <t>раствор хлорид кальция</t>
+  </si>
+  <si>
+    <t>раствор хлорида кальция</t>
+  </si>
+  <si>
+    <t>раствор хлористого кальция</t>
+  </si>
+  <si>
+    <t>технический кальций</t>
+  </si>
+  <si>
+    <t>ту 6 09 4711 81</t>
+  </si>
+  <si>
+    <t>удобрение хлористый кальций</t>
+  </si>
+  <si>
+    <t>укол кальция хлорид</t>
+  </si>
+  <si>
+    <t>укол хлористого кальция</t>
+  </si>
+  <si>
+    <t>укол хлористый</t>
+  </si>
+  <si>
+    <t>укол хлористый кальций для чего</t>
+  </si>
+  <si>
+    <t>уплотнитель кальций хлористый</t>
+  </si>
+  <si>
+    <t>хлор кальций</t>
+  </si>
+  <si>
+    <t>хлорид кальция в пищевой промышленности</t>
+  </si>
+  <si>
+    <t>хлорид кальция в таблетках</t>
+  </si>
+  <si>
+    <t>хлорид кальция для бетона</t>
+  </si>
+  <si>
+    <t>хлорид кальция для чего</t>
+  </si>
+  <si>
+    <t>хлорид кальция е509</t>
+  </si>
+  <si>
+    <t>хлорид кальция от аллергии</t>
+  </si>
+  <si>
+    <t>хлорид кальция пищевой</t>
+  </si>
+  <si>
+    <t>хлорид кальция технический цена</t>
+  </si>
+  <si>
+    <t>хлористий кальцій ампули</t>
+  </si>
+  <si>
+    <t>хлористий кальцій в ампулах</t>
+  </si>
+  <si>
+    <t>хлористий кальцій це</t>
+  </si>
+  <si>
+    <t>хлористого кальция раствор</t>
+  </si>
+  <si>
+    <t>хлористы</t>
+  </si>
+  <si>
+    <t>хлористый кальций 1 процентный</t>
+  </si>
+  <si>
+    <t>хлористый кальций 10</t>
+  </si>
+  <si>
+    <t>хлористый кальций 10 процентный</t>
+  </si>
+  <si>
+    <t>хлористый кальций 10 процентный цена</t>
+  </si>
+  <si>
+    <t>хлористый кальций 5</t>
+  </si>
+  <si>
+    <t>хлористый кальций 5 процентный</t>
+  </si>
+  <si>
+    <t>хлористый кальций в бетон</t>
+  </si>
+  <si>
+    <t>хлористый кальций в вену</t>
+  </si>
+  <si>
+    <t>хлористый кальций в гинекологии</t>
+  </si>
+  <si>
+    <t>хлористый кальций в медицине</t>
+  </si>
+  <si>
+    <t>хлористый кальций в строительстве</t>
+  </si>
+  <si>
+    <t>хлористый кальций в таблетках</t>
+  </si>
+  <si>
+    <t>хлористый кальций внутрь</t>
+  </si>
+  <si>
+    <t>хлористый кальций для арболита</t>
+  </si>
+  <si>
+    <t>хлористый кальций для бетона</t>
+  </si>
+  <si>
+    <t>хлористый кальций для инъекций</t>
+  </si>
+  <si>
+    <t>хлористый кальций для питья</t>
+  </si>
+  <si>
+    <t>хлористый кальций для приема внутрь</t>
+  </si>
+  <si>
+    <t>хлористый кальций для чего</t>
+  </si>
+  <si>
+    <t>хлористый кальций жидкий</t>
+  </si>
+  <si>
+    <t>хлористый кальций и кальция хлорид</t>
+  </si>
+  <si>
+    <t>хлористый кальций от аллергии</t>
+  </si>
+  <si>
+    <t>хлористый кальций от зуда</t>
+  </si>
+  <si>
+    <t>хлористый кальций от кашля</t>
+  </si>
+  <si>
+    <t>хлористый кальций от кашля ребенку</t>
+  </si>
+  <si>
+    <t>хлористый кальций от крапивницы</t>
+  </si>
+  <si>
+    <t>хлористый кальций от прыщей внутрь</t>
+  </si>
+  <si>
+    <t>хлористый кальций от чего</t>
+  </si>
+  <si>
+    <t>хлористый кальций питьевой</t>
+  </si>
+  <si>
+    <t>хлористый кальций питьевой для чего</t>
+  </si>
+  <si>
+    <t>хлористый кальций пищевой</t>
+  </si>
+  <si>
+    <t>хлористый кальций раствор для приема внутрь</t>
+  </si>
+  <si>
+    <t>хлористый кальций с молоком от аллергии</t>
+  </si>
+  <si>
+    <t>хлористый кальций технический</t>
+  </si>
+  <si>
+    <t>хлористый кальций укол</t>
+  </si>
+  <si>
+    <t>хлористый кальций цена</t>
+  </si>
+  <si>
+    <t>хлористый от аллергии</t>
+  </si>
+  <si>
+    <t>хлористый укол</t>
+  </si>
+  <si>
+    <t>хлористый укол от аллергии</t>
+  </si>
+  <si>
+    <t>хлористій кальций</t>
+  </si>
+  <si>
+    <t>цена хлористый кальций</t>
+  </si>
+  <si>
+    <t>двоокис титану r 02</t>
+  </si>
+  <si>
+    <t>0 – 10</t>
+  </si>
+  <si>
+    <t>каніфоль соснова</t>
+  </si>
+  <si>
+    <t>гост 19113</t>
+  </si>
+  <si>
+    <t>живичная канифоль</t>
+  </si>
+  <si>
+    <t>канифоль 20гр</t>
+  </si>
+  <si>
+    <t>канифоль гост</t>
+  </si>
+  <si>
+    <t>канифоль живичная</t>
+  </si>
+  <si>
+    <t>канифоль сосновая 20г</t>
+  </si>
+  <si>
+    <t>канифоль сосновая гост</t>
+  </si>
+  <si>
+    <t>канифоль сосновая гост 19113 84</t>
+  </si>
+  <si>
+    <t>канифоль сосновая для чего</t>
+  </si>
+  <si>
+    <t>канифоль сосновая цена</t>
+  </si>
+  <si>
+    <t>канифоль сосновая цена за кг</t>
+  </si>
+  <si>
+    <t>канифоль цена</t>
+  </si>
+  <si>
+    <t>канифоль цена за 1 кг</t>
+  </si>
+  <si>
+    <t>канифоль цена за кг</t>
+  </si>
+  <si>
+    <t>куплю канифоль</t>
+  </si>
+  <si>
+    <t>продам канифоль</t>
+  </si>
+  <si>
+    <t>сосновая канифоль</t>
+  </si>
+  <si>
+    <t>сосновая канифоль для чего</t>
+  </si>
+  <si>
+    <t>сургуч почтовый</t>
+  </si>
+  <si>
+    <t>почтовый сургуч</t>
+  </si>
+  <si>
+    <t>сургуч почтовый купить</t>
+  </si>
+  <si>
+    <t>лабомід</t>
+  </si>
+  <si>
+    <t>лобомид</t>
+  </si>
+  <si>
+    <t>10 – 100</t>
+  </si>
+  <si>
+    <t>перекис водню</t>
+  </si>
+  <si>
+    <t>перекись водорода</t>
+  </si>
+  <si>
+    <t>перекись</t>
+  </si>
+  <si>
+    <t>перекись водорода цена</t>
+  </si>
+  <si>
+    <t>пероксид водорода</t>
+  </si>
+  <si>
+    <t>водорода перекись медицинская</t>
+  </si>
+  <si>
+    <t>1 перекись водорода</t>
+  </si>
+  <si>
+    <t>10 перекись водорода</t>
+  </si>
+  <si>
+    <t>100 перекись водорода</t>
+  </si>
+  <si>
+    <t>3 perekis</t>
+  </si>
+  <si>
+    <t>3 перекись</t>
+  </si>
+  <si>
+    <t>3 перекись водорода</t>
+  </si>
+  <si>
+    <t>3 процентная перекись водорода</t>
+  </si>
+  <si>
+    <t>3 процентный раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>3 раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>3 х процентная перекись водорода</t>
+  </si>
+  <si>
+    <t>30 процентная перекись водорода</t>
+  </si>
+  <si>
+    <t>30 раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>33 перекись водорода</t>
+  </si>
+  <si>
+    <t>40 перекись водорода</t>
+  </si>
+  <si>
+    <t>5 перекись водорода</t>
+  </si>
+  <si>
+    <t>6 перекись</t>
+  </si>
+  <si>
+    <t>6 раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>ok google перекись водорода</t>
+  </si>
+  <si>
+    <t>perekis 3</t>
+  </si>
+  <si>
+    <t>акушерская перекись водорода</t>
+  </si>
+  <si>
+    <t>альтернатива перекиси водорода</t>
+  </si>
+  <si>
+    <t>аналог перекиси</t>
+  </si>
+  <si>
+    <t>аналог перекиси водорода</t>
+  </si>
+  <si>
+    <t>аптечная перекись водорода</t>
+  </si>
+  <si>
+    <t>болит ухо перекись водорода</t>
+  </si>
+  <si>
+    <t>внутривенное введение перекиси водорода</t>
+  </si>
+  <si>
+    <t>водород 3</t>
+  </si>
+  <si>
+    <t>водород перекись</t>
+  </si>
+  <si>
+    <t>водород пероксид</t>
+  </si>
+  <si>
+    <t>водород пероксид 3</t>
+  </si>
+  <si>
+    <t>водорода</t>
+  </si>
+  <si>
+    <t>водорода перекись для чего</t>
+  </si>
+  <si>
+    <t>водорода перекись раствор 3</t>
+  </si>
+  <si>
+    <t>водородная перекись</t>
+  </si>
+  <si>
+    <t>водородный перекись</t>
+  </si>
+  <si>
+    <t>гидроген пероксид</t>
+  </si>
+  <si>
+    <t>гидроген пероксид 3</t>
+  </si>
+  <si>
+    <t>глицерин перекись водорода</t>
+  </si>
+  <si>
+    <t>диоксид водорода</t>
+  </si>
+  <si>
+    <t>замена перекиси водорода</t>
+  </si>
+  <si>
+    <t>заменитель перекиси</t>
+  </si>
+  <si>
+    <t>заменитель перекиси водорода</t>
+  </si>
+  <si>
+    <t>интер синтез перекись водорода</t>
+  </si>
+  <si>
+    <t>йод и перекись водорода</t>
+  </si>
+  <si>
+    <t>йод перекись водорода</t>
+  </si>
+  <si>
+    <t>йод с перекисью водорода</t>
+  </si>
+  <si>
+    <t>концентрированная перекись водорода</t>
+  </si>
+  <si>
+    <t>куплю перекись водорода</t>
+  </si>
+  <si>
+    <t>леккер перекись водорода</t>
+  </si>
+  <si>
+    <t>лечение герпеса перекисью водорода</t>
+  </si>
+  <si>
+    <t>лечение отита перекисью водорода</t>
+  </si>
+  <si>
+    <t>лечение суставов перекисью водорода</t>
+  </si>
+  <si>
+    <t>лечение уха перекисью водорода</t>
+  </si>
+  <si>
+    <t>лечение ушей перекисью водорода</t>
+  </si>
+  <si>
+    <t>лечение хронического тонзиллита перекисью водорода</t>
+  </si>
+  <si>
+    <t>насморк перекись водорода</t>
+  </si>
+  <si>
+    <t>обеззараживание перекисью водорода</t>
+  </si>
+  <si>
+    <t>обработка перекисью водорода</t>
+  </si>
+  <si>
+    <t>окись водорода</t>
+  </si>
+  <si>
+    <t>от чего перекись водорода</t>
+  </si>
+  <si>
+    <t>от чего помогает перекись водорода</t>
+  </si>
+  <si>
+    <t>от чего пьют перекись</t>
+  </si>
+  <si>
+    <t>от чего пьют перекись водорода</t>
+  </si>
+  <si>
+    <t>очищенная перекись водорода</t>
+  </si>
+  <si>
+    <t>пары перекиси водорода</t>
+  </si>
+  <si>
+    <t>пергидроль в аптеке</t>
+  </si>
+  <si>
+    <t>пергидроль в таблетках</t>
+  </si>
+  <si>
+    <t>пергидроль для чего</t>
+  </si>
+  <si>
+    <t>пергидроль порошок</t>
+  </si>
+  <si>
+    <t>пергидроль таблетки</t>
+  </si>
+  <si>
+    <t>перекис водню 200 мл</t>
+  </si>
+  <si>
+    <t>перекис водню 3</t>
+  </si>
+  <si>
+    <t>перекис водню 3 100мл</t>
+  </si>
+  <si>
+    <t>перекис водню 3 купити</t>
+  </si>
+  <si>
+    <t>перекис водню 3 процентний</t>
+  </si>
+  <si>
+    <t>перекис водню 3 інструкція</t>
+  </si>
+  <si>
+    <t>перекис водню аптека</t>
+  </si>
+  <si>
+    <t>перекис водню в таблетках</t>
+  </si>
+  <si>
+    <t>перекис водню в ухо</t>
+  </si>
+  <si>
+    <t>перекис водню медичний</t>
+  </si>
+  <si>
+    <t>перекис водню цена</t>
+  </si>
+  <si>
+    <t>перекиси водорода раствор</t>
+  </si>
+  <si>
+    <t>перекисом</t>
+  </si>
+  <si>
+    <t>перекись 1</t>
+  </si>
+  <si>
+    <t>перекись 10</t>
+  </si>
+  <si>
+    <t>перекись 200 мл</t>
+  </si>
+  <si>
+    <t>перекись 3</t>
+  </si>
+  <si>
+    <t>перекись 30</t>
+  </si>
+  <si>
+    <t>перекись 33</t>
+  </si>
+  <si>
+    <t>перекись 40</t>
+  </si>
+  <si>
+    <t>перекись 6</t>
+  </si>
+  <si>
+    <t>перекись аналог</t>
+  </si>
+  <si>
+    <t>перекись в</t>
+  </si>
+  <si>
+    <t>перекись в аптеке</t>
+  </si>
+  <si>
+    <t>перекись в нос</t>
+  </si>
+  <si>
+    <t>перекись вишфа</t>
+  </si>
+  <si>
+    <t>перекись вод</t>
+  </si>
+  <si>
+    <t>перекись водню 3</t>
+  </si>
+  <si>
+    <t>перекись водню купити</t>
+  </si>
+  <si>
+    <t>перекись водня</t>
+  </si>
+  <si>
+    <t>перекись водород 3</t>
+  </si>
+  <si>
+    <t>перекись водорода 0 3</t>
+  </si>
+  <si>
+    <t>перекись водорода 1</t>
+  </si>
+  <si>
+    <t>перекись водорода 1 литр</t>
+  </si>
+  <si>
+    <t>перекись водорода 1 процентная</t>
+  </si>
+  <si>
+    <t>перекись водорода 10</t>
+  </si>
+  <si>
+    <t>перекись водорода 100</t>
+  </si>
+  <si>
+    <t>перекись водорода 100 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 100 мл цена</t>
+  </si>
+  <si>
+    <t>перекись водорода 1000 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 2</t>
+  </si>
+  <si>
+    <t>перекись водорода 20</t>
+  </si>
+  <si>
+    <t>перекись водорода 200 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 200 мл цена</t>
+  </si>
+  <si>
+    <t>перекись водорода 3 100 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 3 100мл цена</t>
+  </si>
+  <si>
+    <t>перекись водорода 3 процентная</t>
+  </si>
+  <si>
+    <t>перекись водорода 3 процентная цена</t>
+  </si>
+  <si>
+    <t>перекись водорода 3 цена</t>
+  </si>
+  <si>
+    <t>перекись водорода 30 процентная</t>
+  </si>
+  <si>
+    <t>перекись водорода 33</t>
+  </si>
+  <si>
+    <t>перекись водорода 4</t>
+  </si>
+  <si>
+    <t>перекись водорода 40</t>
+  </si>
+  <si>
+    <t>перекись водорода 40 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 400 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 5</t>
+  </si>
+  <si>
+    <t>перекись водорода 50 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 500 мл</t>
+  </si>
+  <si>
+    <t>перекись водорода 6</t>
+  </si>
+  <si>
+    <t>перекись водорода 911</t>
+  </si>
+  <si>
+    <t>перекись водорода аналог</t>
+  </si>
+  <si>
+    <t>перекись водорода аптечная</t>
+  </si>
+  <si>
+    <t>перекись водорода без бензоата натрия</t>
+  </si>
+  <si>
+    <t>перекись водорода белмедпрепараты</t>
+  </si>
+  <si>
+    <t>перекись водорода в</t>
+  </si>
+  <si>
+    <t>перекись водорода в ампулах</t>
+  </si>
+  <si>
+    <t>перекись водорода в аптеках</t>
+  </si>
+  <si>
+    <t>перекись водорода в вену</t>
+  </si>
+  <si>
+    <t>перекись водорода в виде спрея</t>
+  </si>
+  <si>
+    <t>перекись водорода в капсулах</t>
+  </si>
+  <si>
+    <t>перекись водорода в карандаше</t>
+  </si>
+  <si>
+    <t>перекись водорода в медицине</t>
+  </si>
+  <si>
+    <t>перекись водорода в нос для профилактики</t>
+  </si>
+  <si>
+    <t>перекись водорода в спрее</t>
+  </si>
+  <si>
+    <t>перекись водорода в таблетках</t>
+  </si>
+  <si>
+    <t>перекись водорода где применяется</t>
+  </si>
+  <si>
+    <t>перекись водорода дезинфекция</t>
+  </si>
+  <si>
+    <t>перекись водорода для</t>
+  </si>
+  <si>
+    <t>перекись водорода для внутреннего применения</t>
+  </si>
+  <si>
+    <t>перекись водорода для детей</t>
+  </si>
+  <si>
+    <t>перекись водорода для заживления ран</t>
+  </si>
+  <si>
+    <t>перекись водорода для здоровья</t>
+  </si>
+  <si>
+    <t>перекись водорода для инъекций</t>
+  </si>
+  <si>
+    <t>перекись водорода для лечения уха</t>
+  </si>
+  <si>
+    <t>перекись водорода для лечения ушей</t>
+  </si>
+  <si>
+    <t>перекись водорода для наружного применения</t>
+  </si>
+  <si>
+    <t>перекись водорода для обработки ран</t>
+  </si>
+  <si>
+    <t>перекись водорода для организма</t>
+  </si>
+  <si>
+    <t>перекись водорода для остановки кровотечения</t>
+  </si>
+  <si>
+    <t>перекись водорода для потенции</t>
+  </si>
+  <si>
+    <t>перекись водорода для промывания ран</t>
+  </si>
+  <si>
+    <t>перекись водорода для ран</t>
+  </si>
+  <si>
+    <t>перекись водорода для чего</t>
+  </si>
+  <si>
+    <t>перекись водорода для чего используется</t>
+  </si>
+  <si>
+    <t>перекись водорода для чего применяется</t>
+  </si>
+  <si>
+    <t>перекись водорода и</t>
+  </si>
+  <si>
+    <t>перекись водорода и йод</t>
+  </si>
+  <si>
+    <t>перекись водорода и насморк</t>
+  </si>
+  <si>
+    <t>перекись водорода и хлоргексидин</t>
+  </si>
+  <si>
+    <t>перекись водорода использование</t>
+  </si>
+  <si>
+    <t>перекись водорода карандаш</t>
+  </si>
+  <si>
+    <t>перекись водорода концентрированная</t>
+  </si>
+  <si>
+    <t>перекись водорода кровоостанавливающее</t>
+  </si>
+  <si>
+    <t>перекись водорода лечение суставов</t>
+  </si>
+  <si>
+    <t>перекись водорода маленькая</t>
+  </si>
+  <si>
+    <t>перекись водорода на латыни</t>
+  </si>
+  <si>
+    <t>перекись водорода на рану</t>
+  </si>
+  <si>
+    <t>перекись водорода на слизистую</t>
+  </si>
+  <si>
+    <t>перекись водорода обработка ран</t>
+  </si>
+  <si>
+    <t>перекись водорода от аллергии</t>
+  </si>
+  <si>
+    <t>перекись водорода от боли в горле</t>
+  </si>
+  <si>
+    <t>перекись водорода от боли в ухе</t>
+  </si>
+  <si>
+    <t>перекись водорода от вирусов</t>
+  </si>
+  <si>
+    <t>перекись водорода от всех болезней</t>
+  </si>
+  <si>
+    <t>перекись водорода от герпеса</t>
+  </si>
+  <si>
+    <t>перекись водорода от грибка в паху</t>
+  </si>
+  <si>
+    <t>перекись водорода от заложенности носа</t>
+  </si>
+  <si>
+    <t>перекись водорода от запаха кошачьей мочи</t>
+  </si>
+  <si>
+    <t>перекись водорода от запаха мочи</t>
+  </si>
+  <si>
+    <t>перекись водорода от запаха пота</t>
+  </si>
+  <si>
+    <t>перекись водорода от инфекций</t>
+  </si>
+  <si>
+    <t>перекись водорода от кошачьей мочи</t>
+  </si>
+  <si>
+    <t>перекись водорода от насморка</t>
+  </si>
+  <si>
+    <t>перекись водорода от отита</t>
+  </si>
+  <si>
+    <t>перекись водорода от пота под мышками</t>
+  </si>
+  <si>
+    <t>перекись водорода от простуды</t>
+  </si>
+  <si>
+    <t>перекись водорода от тонзиллита</t>
+  </si>
+  <si>
+    <t>перекись водорода от чего</t>
+  </si>
+  <si>
+    <t>перекись водорода от чего помогает</t>
+  </si>
+  <si>
+    <t>перекись водорода по латыни</t>
+  </si>
+  <si>
+    <t>перекись водорода польза</t>
+  </si>
+  <si>
+    <t>перекись водорода процент</t>
+  </si>
+  <si>
+    <t>перекись водорода раствор</t>
+  </si>
+  <si>
+    <t>перекись водорода с водой</t>
+  </si>
+  <si>
+    <t>перекись водорода с дозатором</t>
+  </si>
+  <si>
+    <t>перекись водорода с распылителем</t>
+  </si>
+  <si>
+    <t>перекись водорода скольки процентная бывает</t>
+  </si>
+  <si>
+    <t>перекись водорода сколько стоит</t>
+  </si>
+  <si>
+    <t>перекись водорода таблетки</t>
+  </si>
+  <si>
+    <t>перекись водорода тульская фармацевтическая фабрика</t>
+  </si>
+  <si>
+    <t>перекись водорода хлоргексидин</t>
+  </si>
+  <si>
+    <t>перекись водорода цена в аптеках</t>
+  </si>
+  <si>
+    <t>перекись водорода ціна</t>
+  </si>
+  <si>
+    <t>перекись для</t>
+  </si>
+  <si>
+    <t>перекись для обработки ран</t>
+  </si>
+  <si>
+    <t>перекись для ран</t>
+  </si>
+  <si>
+    <t>перекись для чего</t>
+  </si>
+  <si>
+    <t>перекись для чего используют</t>
+  </si>
+  <si>
+    <t>перекись для чего применяется</t>
+  </si>
+  <si>
+    <t>перекись на рану</t>
+  </si>
+  <si>
+    <t>перекись от аллергии</t>
+  </si>
+  <si>
+    <t>перекись от ангины</t>
+  </si>
+  <si>
+    <t>перекись от боли в горле</t>
+  </si>
+  <si>
+    <t>перекись от герпеса</t>
+  </si>
+  <si>
+    <t>перекись от запаха пота</t>
+  </si>
+  <si>
+    <t>перекись от насморка</t>
+  </si>
+  <si>
+    <t>перекись от пота под мышками</t>
+  </si>
+  <si>
+    <t>перекись от простуды</t>
+  </si>
+  <si>
+    <t>перекись от укусов комаров</t>
+  </si>
+  <si>
+    <t>перекись процент</t>
+  </si>
+  <si>
+    <t>перекись с водой</t>
+  </si>
+  <si>
+    <t>перекись сколько стоит</t>
+  </si>
+  <si>
+    <t>перекись тульская</t>
+  </si>
+  <si>
+    <t>перекись хлоргексидин</t>
+  </si>
+  <si>
+    <t>перекись цена</t>
+  </si>
+  <si>
+    <t>перекись цена в аптеках</t>
+  </si>
+  <si>
+    <t>перекс</t>
+  </si>
+  <si>
+    <t>перикс водород</t>
+  </si>
+  <si>
+    <t>пероксид водню</t>
+  </si>
+  <si>
+    <t>пероксид водорода 3</t>
+  </si>
+  <si>
+    <t>пероксид водорода для чего</t>
+  </si>
+  <si>
+    <t>пероксид водорода цена</t>
+  </si>
+  <si>
+    <t>пищевая сода и перекись водорода</t>
+  </si>
+  <si>
+    <t>польза перекиси</t>
+  </si>
+  <si>
+    <t>польза перекиси водорода</t>
+  </si>
+  <si>
+    <t>польза перекиси водорода для организма</t>
+  </si>
+  <si>
+    <t>прием перекиси водорода</t>
+  </si>
+  <si>
+    <t>продам перекись водорода</t>
+  </si>
+  <si>
+    <t>процент перекиси водорода</t>
+  </si>
+  <si>
+    <t>раствор водорода перекиси</t>
+  </si>
+  <si>
+    <t>раствор пергидроля</t>
+  </si>
+  <si>
+    <t>раствор перекиси</t>
+  </si>
+  <si>
+    <t>раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>раствор перекиси водорода 3</t>
+  </si>
+  <si>
+    <t>скольки процентная бывает перекись водорода</t>
+  </si>
+  <si>
+    <t>слабый раствор перекиси водорода</t>
+  </si>
+  <si>
+    <t>смертельная доза перекиси водорода</t>
+  </si>
+  <si>
+    <t>сода и перекись водорода от запаха мочи</t>
+  </si>
+  <si>
+    <t>таблетки пергидроль</t>
+  </si>
+  <si>
+    <t>таблетки перекиси водорода</t>
+  </si>
+  <si>
+    <t>тонзиллит перекись водорода</t>
+  </si>
+  <si>
+    <t>трехпроцентная перекись водорода</t>
+  </si>
+  <si>
+    <t>укол перекисью водорода</t>
+  </si>
+  <si>
+    <t>употребление перекиси</t>
+  </si>
+  <si>
+    <t>употребление перекиси водорода</t>
+  </si>
+  <si>
+    <t>хлоргексидин аналог перекиси водорода</t>
+  </si>
+  <si>
+    <t>хлоргексидин и перекись</t>
+  </si>
+  <si>
+    <t>хлоргексидин и перекись водорода</t>
+  </si>
+  <si>
+    <t>хлоргексидин перекись</t>
+  </si>
+  <si>
+    <t>хлоргексидин перекись водорода</t>
+  </si>
+  <si>
+    <t>хлоргексидина биглюконат перекись водорода</t>
+  </si>
+  <si>
+    <t>цена на перекись водорода</t>
+  </si>
+  <si>
+    <t>цена перекиси</t>
+  </si>
+  <si>
+    <t>цена перекиси водорода</t>
+  </si>
+  <si>
+    <t>цена перекиси водорода в аптеке</t>
+  </si>
+  <si>
+    <t>цена перекись водорода в аптеках</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат</t>
+  </si>
+  <si>
+    <t>гост 201 76</t>
+  </si>
+  <si>
+    <t>три натрий фосфат</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат в быту</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат гост</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат гост 201 76</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат для мытья посуды</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат для стирки</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат технический</t>
+  </si>
+  <si>
+    <t>тринатрийфосфат цена</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +1809,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3C4043"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -507,10 +1845,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1077,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,4 +3307,3492 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="J9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B62" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B127">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B26">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B4">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H244"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="s">
+        <v>515</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="G9" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>517</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="2">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="G11" t="s">
+        <v>562</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="G12" t="s">
+        <v>563</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>537</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="G13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>379</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="2">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>536</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="2">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>546</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>550</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="2">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>551</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>570</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="2">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>571</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="2">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>572</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B45" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B48" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B55" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B65" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B70" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B73" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B74" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B99" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B101" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B102" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B107" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B110" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B111" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B112" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B113" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B114" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B118" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B119" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B120" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B121" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B122" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B124" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B125" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B126" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B127" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B128" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B129" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B130" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B131" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B132" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B133" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B134" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B135" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B136" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B137" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B138" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B139" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B141" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B142" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B143" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B144" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B145" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B146" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B148" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B150" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B151" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B152" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B153" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B155" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B156" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B157" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B158" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B160" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B161" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B163" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B164" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B165" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B166" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B167" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B168" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B169" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B170" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B171" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B172" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B173" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B174" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B175" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B176" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B177" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B178" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B179" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B180" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B182" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B183" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B184" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B185" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B186" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B187" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B188" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B189" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B190" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B191" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B192" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B193" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B194" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B195" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B196" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B197" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B198" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B199" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B200" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B201" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B202" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B203" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B204" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B205" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B206" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B207" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B208" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B209" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B210" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B211" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B212" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B213" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B214" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B215" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B216" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B217" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B218" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B219" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B220" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B221" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B222" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B223" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B224" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B225" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B226" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B227" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B228" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B229" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B230" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B231" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B232" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B233" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B234" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B235" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B236" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B237" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B238" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B239" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B240" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B241" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B242" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B243" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B244" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:B295">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>578</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>581</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>582</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B15">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="хлорне вапно" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="618">
   <si>
     <t>хлорне вапно</t>
   </si>
@@ -61,9 +61,6 @@
     <t>известь хлорная гост</t>
   </si>
   <si>
-    <t>известь хлорная цена</t>
-  </si>
-  <si>
     <t>маточный раствор хлорной извести</t>
   </si>
   <si>
@@ -118,12 +115,6 @@
     <t>хлорная известь раствор</t>
   </si>
   <si>
-    <t>хлорная известь цена</t>
-  </si>
-  <si>
-    <t>хлорная известь цена за 1 кг</t>
-  </si>
-  <si>
     <t>хлорная известь эпицентр</t>
   </si>
   <si>
@@ -1787,13 +1778,121 @@
   </si>
   <si>
     <t>тринатрийфосфат цена</t>
+  </si>
+  <si>
+    <t>минус слова</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>H1:</t>
+  </si>
+  <si>
+    <t>Хлорная известь - сухая хлорка</t>
+  </si>
+  <si>
+    <t>Хлорная известь - сухая хлорка для дезинфекции</t>
+  </si>
+  <si>
+    <t>хлорная известь 25 кг</t>
+  </si>
+  <si>
+    <t>хлорка 25 кг</t>
+  </si>
+  <si>
+    <t>хлорная известь тонна</t>
+  </si>
+  <si>
+    <t>хлорка для бассейна</t>
+  </si>
+  <si>
+    <t>хлорная известь болгария</t>
+  </si>
+  <si>
+    <t>хлорка болгария</t>
+  </si>
+  <si>
+    <t>хлорная дезинфекция</t>
+  </si>
+  <si>
+    <t>хлорка для дезинфекции</t>
+  </si>
+  <si>
+    <t>хлорная известь для дезинфекции воды</t>
+  </si>
+  <si>
+    <t>хлорная известь обработка земли</t>
+  </si>
+  <si>
+    <t>хлорная известь для дезинфекции почвы</t>
+  </si>
+  <si>
+    <t>хлорка сухая</t>
+  </si>
+  <si>
+    <t>хлорка сыпучая</t>
+  </si>
+  <si>
+    <t>хлорка порошок</t>
+  </si>
+  <si>
+    <t>хлорная известь мешок</t>
+  </si>
+  <si>
+    <t>известь хлорная 25кг</t>
+  </si>
+  <si>
+    <t>известь хлорная по низким</t>
+  </si>
+  <si>
+    <t>гипохлорит кальция</t>
+  </si>
+  <si>
+    <t>известь хлорная хлорка</t>
+  </si>
+  <si>
+    <t>хлорная известь фасованная</t>
+  </si>
+  <si>
+    <t>хлорка в мешках</t>
+  </si>
+  <si>
+    <t>хлорная известь румыния</t>
+  </si>
+  <si>
+    <t>хлорка румыния</t>
+  </si>
+  <si>
+    <t>хлорная известь 1с</t>
+  </si>
+  <si>
+    <t>хлорная известь для выгребной ямы</t>
+  </si>
+  <si>
+    <t>хлорная известь для септика</t>
+  </si>
+  <si>
+    <t>белильная хлорная известь</t>
+  </si>
+  <si>
+    <t>хлор</t>
+  </si>
+  <si>
+    <t>хлорная известь в ассортименте</t>
+  </si>
+  <si>
+    <t>известь хлорную</t>
+  </si>
+  <si>
+    <t>хлорную известь</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1824,6 +1923,38 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1845,7 +1976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1855,6 +1986,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -2135,17 +2283,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K21"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -2153,267 +2301,502 @@
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Q2" s="12"/>
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="13"/>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>500</v>
       </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>14</v>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6">
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
       </c>
-      <c r="K7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K10">
+        <v>50</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="K11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="K13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B44">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2421,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,19 +2820,19 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>5000</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -2457,13 +2840,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>500</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>5000</v>
@@ -2471,13 +2854,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -2485,13 +2868,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -2499,13 +2882,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2513,13 +2896,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -2527,7 +2910,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2">
         <v>500</v>
@@ -2535,7 +2918,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2">
         <v>500</v>
@@ -2543,7 +2926,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -2551,7 +2934,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2">
         <v>500</v>
@@ -2559,7 +2942,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2">
         <v>500</v>
@@ -2567,7 +2950,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2">
         <v>500</v>
@@ -2575,7 +2958,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2">
         <v>500</v>
@@ -2583,7 +2966,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2">
         <v>500</v>
@@ -2591,7 +2974,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B17" s="2">
         <v>500</v>
@@ -2599,7 +2982,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>50</v>
@@ -2607,7 +2990,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
@@ -2615,7 +2998,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
@@ -2623,7 +3006,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
@@ -2631,7 +3014,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -2639,7 +3022,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
@@ -2647,7 +3030,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>50</v>
@@ -2655,7 +3038,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2">
         <v>50</v>
@@ -2663,7 +3046,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>50</v>
@@ -2671,7 +3054,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>50</v>
@@ -2679,7 +3062,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>50</v>
@@ -2687,7 +3070,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
         <v>50</v>
@@ -2695,7 +3078,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>50</v>
@@ -2703,7 +3086,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2">
         <v>50</v>
@@ -2711,7 +3094,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2">
         <v>50</v>
@@ -2719,7 +3102,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -2727,7 +3110,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -2735,7 +3118,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2">
         <v>50</v>
@@ -2743,7 +3126,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2">
         <v>50</v>
@@ -2751,7 +3134,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -2759,7 +3142,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2">
         <v>50</v>
@@ -2767,7 +3150,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2">
         <v>50</v>
@@ -2775,7 +3158,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2">
         <v>50</v>
@@ -2783,7 +3166,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2">
         <v>50</v>
@@ -2791,7 +3174,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2">
         <v>50</v>
@@ -2799,7 +3182,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2">
         <v>50</v>
@@ -2807,7 +3190,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2">
         <v>50</v>
@@ -2815,7 +3198,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2">
         <v>50</v>
@@ -2823,7 +3206,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2">
         <v>50</v>
@@ -2831,7 +3214,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2">
         <v>50</v>
@@ -2839,7 +3222,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2">
         <v>50</v>
@@ -2847,7 +3230,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2">
         <v>50</v>
@@ -2855,7 +3238,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2">
         <v>50</v>
@@ -2863,7 +3246,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -2871,7 +3254,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
@@ -2879,7 +3262,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2">
         <v>50</v>
@@ -2887,7 +3270,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2">
         <v>50</v>
@@ -2895,7 +3278,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -2903,7 +3286,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -2911,7 +3294,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2">
         <v>50</v>
@@ -2919,7 +3302,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -2927,7 +3310,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2">
         <v>50</v>
@@ -2935,7 +3318,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2">
         <v>50</v>
@@ -2943,7 +3326,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2">
         <v>50</v>
@@ -2951,7 +3334,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2">
         <v>50</v>
@@ -2959,7 +3342,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2">
         <v>50</v>
@@ -2967,7 +3350,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2">
         <v>50</v>
@@ -2975,7 +3358,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2">
         <v>50</v>
@@ -2983,7 +3366,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2">
         <v>50</v>
@@ -2991,7 +3374,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2">
         <v>50</v>
@@ -2999,7 +3382,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2">
         <v>50</v>
@@ -3007,7 +3390,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2">
         <v>50</v>
@@ -3015,7 +3398,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2">
         <v>50</v>
@@ -3023,7 +3406,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2">
         <v>50</v>
@@ -3031,7 +3414,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2">
         <v>50</v>
@@ -3039,7 +3422,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2">
         <v>50</v>
@@ -3047,7 +3430,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2">
         <v>50</v>
@@ -3055,7 +3438,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2">
         <v>50</v>
@@ -3063,7 +3446,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2">
         <v>50</v>
@@ -3071,7 +3454,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2">
         <v>50</v>
@@ -3079,7 +3462,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2">
         <v>50</v>
@@ -3087,7 +3470,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2">
         <v>50</v>
@@ -3095,7 +3478,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2">
         <v>50</v>
@@ -3103,7 +3486,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2">
         <v>50</v>
@@ -3111,7 +3494,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2">
         <v>50</v>
@@ -3119,7 +3502,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2">
         <v>50</v>
@@ -3127,7 +3510,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2">
         <v>50</v>
@@ -3135,7 +3518,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2">
         <v>50</v>
@@ -3143,7 +3526,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2">
         <v>50</v>
@@ -3151,7 +3534,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2">
         <v>50</v>
@@ -3159,7 +3542,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2">
         <v>50</v>
@@ -3167,7 +3550,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2">
         <v>50</v>
@@ -3175,7 +3558,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2">
         <v>50</v>
@@ -3183,7 +3566,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2">
         <v>50</v>
@@ -3191,7 +3574,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2">
         <v>50</v>
@@ -3199,7 +3582,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2">
         <v>50</v>
@@ -3207,7 +3590,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2">
         <v>50</v>
@@ -3215,7 +3598,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2">
         <v>50</v>
@@ -3223,7 +3606,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2">
         <v>50</v>
@@ -3231,7 +3614,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2">
         <v>50</v>
@@ -3239,7 +3622,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2">
         <v>50</v>
@@ -3247,7 +3630,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2">
         <v>50</v>
@@ -3255,7 +3638,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2">
         <v>50</v>
@@ -3263,7 +3646,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2">
         <v>50</v>
@@ -3271,7 +3654,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2">
         <v>50</v>
@@ -3279,7 +3662,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2">
         <v>50</v>
@@ -3287,7 +3670,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2">
         <v>50</v>
@@ -3295,7 +3678,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2">
         <v>50</v>
@@ -3334,25 +3717,25 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K3">
         <v>500</v>
@@ -3360,25 +3743,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K4">
         <v>500</v>
@@ -3386,25 +3769,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K5">
         <v>500</v>
@@ -3412,25 +3795,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6">
         <v>5000</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K6">
         <v>50</v>
@@ -3438,25 +3821,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K7">
         <v>50</v>
@@ -3464,25 +3847,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B8" s="2">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K8">
         <v>50</v>
@@ -3490,19 +3873,19 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K9">
         <v>50</v>
@@ -3510,13 +3893,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -3524,13 +3907,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3538,13 +3921,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>50</v>
@@ -3552,13 +3935,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -3566,13 +3949,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -3580,13 +3963,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -3594,13 +3977,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -3608,13 +3991,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -3622,13 +4005,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -3636,13 +4019,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3650,13 +4033,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -3664,13 +4047,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -3678,13 +4061,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -3692,13 +4075,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -3706,13 +4089,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -3720,13 +4103,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3734,13 +4117,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2">
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3748,7 +4131,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B27" s="2">
         <v>50</v>
@@ -3756,7 +4139,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2">
         <v>50</v>
@@ -3764,7 +4147,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2">
         <v>50</v>
@@ -3772,7 +4155,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2">
         <v>50</v>
@@ -3780,7 +4163,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2">
         <v>50</v>
@@ -3788,7 +4171,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2">
         <v>50</v>
@@ -3796,7 +4179,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -3804,7 +4187,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -3812,7 +4195,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2">
         <v>50</v>
@@ -3820,7 +4203,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2">
         <v>50</v>
@@ -3828,7 +4211,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -3836,7 +4219,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B38" s="2">
         <v>50</v>
@@ -3844,7 +4227,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B39" s="2">
         <v>50</v>
@@ -3852,7 +4235,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B40" s="2">
         <v>50</v>
@@ -3860,7 +4243,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2">
         <v>50</v>
@@ -3868,7 +4251,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2">
         <v>50</v>
@@ -3876,7 +4259,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2">
         <v>50</v>
@@ -3884,7 +4267,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B44" s="2">
         <v>50</v>
@@ -3892,7 +4275,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" s="2">
         <v>50</v>
@@ -3900,7 +4283,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2">
         <v>50</v>
@@ -3908,7 +4291,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2">
         <v>50</v>
@@ -3916,7 +4299,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B48" s="2">
         <v>50</v>
@@ -3924,7 +4307,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B49" s="2">
         <v>50</v>
@@ -3932,7 +4315,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2">
         <v>50</v>
@@ -3940,7 +4323,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -3948,7 +4331,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
@@ -3956,7 +4339,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B53" s="2">
         <v>50</v>
@@ -3964,7 +4347,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" s="2">
         <v>50</v>
@@ -3972,7 +4355,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -3980,7 +4363,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -3988,7 +4371,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2">
         <v>50</v>
@@ -3996,7 +4379,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -4004,7 +4387,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" s="2">
         <v>50</v>
@@ -4012,7 +4395,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B60" s="2">
         <v>50</v>
@@ -4020,7 +4403,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B61" s="2">
         <v>50</v>
@@ -4028,7 +4411,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B62" s="2">
         <v>50</v>
@@ -4036,7 +4419,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B63" s="2">
         <v>50</v>
@@ -4044,7 +4427,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B64" s="2">
         <v>50</v>
@@ -4052,7 +4435,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B65" s="2">
         <v>50</v>
@@ -4060,7 +4443,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B66" s="2">
         <v>50</v>
@@ -4068,7 +4451,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B67" s="2">
         <v>50</v>
@@ -4076,7 +4459,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B68" s="2">
         <v>50</v>
@@ -4084,7 +4467,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B69" s="2">
         <v>50</v>
@@ -4092,7 +4475,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B70" s="2">
         <v>50</v>
@@ -4100,7 +4483,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B71" s="2">
         <v>50</v>
@@ -4108,7 +4491,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B72" s="2">
         <v>50</v>
@@ -4116,7 +4499,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2">
         <v>50</v>
@@ -4124,7 +4507,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2">
         <v>50</v>
@@ -4132,7 +4515,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B75" s="2">
         <v>50</v>
@@ -4140,7 +4523,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B76" s="2">
         <v>50</v>
@@ -4148,7 +4531,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="2">
         <v>50</v>
@@ -4156,7 +4539,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B78" s="2">
         <v>50</v>
@@ -4164,7 +4547,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B79" s="2">
         <v>50</v>
@@ -4172,7 +4555,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B80" s="2">
         <v>50</v>
@@ -4180,7 +4563,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B81" s="2">
         <v>50</v>
@@ -4188,7 +4571,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B82" s="2">
         <v>50</v>
@@ -4196,7 +4579,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B83" s="2">
         <v>50</v>
@@ -4204,7 +4587,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B84" s="2">
         <v>50</v>
@@ -4212,7 +4595,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B85" s="2">
         <v>50</v>
@@ -4242,10 +4625,10 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4277,25 +4660,25 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -4303,25 +4686,25 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K4">
         <v>50</v>
@@ -4329,19 +4712,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -4349,19 +4732,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -4369,7 +4752,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -4377,7 +4760,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -4385,7 +4768,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -4393,7 +4776,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -4401,7 +4784,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -4430,7 +4813,7 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -4438,7 +4821,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -4446,7 +4829,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -4476,18 +4859,18 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4517,19 +4900,19 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E3">
         <v>5000</v>
       </c>
       <c r="G3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -4537,19 +4920,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E4">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H4">
         <v>50</v>
@@ -4557,19 +4940,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="G5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H5">
         <v>50</v>
@@ -4577,19 +4960,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E6">
         <v>5000</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -4597,19 +4980,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B7" s="2">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E7">
         <v>5000</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4617,19 +5000,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B8" s="2">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4637,19 +5020,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B9" s="2">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -4657,19 +5040,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B10" s="2">
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -4677,19 +5060,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B11" s="2">
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="G11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H11">
         <v>50</v>
@@ -4697,19 +5080,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B12" s="2">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H12">
         <v>50</v>
@@ -4717,19 +5100,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B13" s="2">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="G13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H13">
         <v>50</v>
@@ -4737,13 +5120,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B14" s="2">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -4751,13 +5134,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B15" s="2">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4765,13 +5148,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B16" s="2">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -4779,13 +5162,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="2">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -4793,13 +5176,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B18" s="2">
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -4807,13 +5190,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B19" s="2">
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -4821,13 +5204,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B20" s="2">
         <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4835,13 +5218,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B21" s="2">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -4849,13 +5232,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -4863,13 +5246,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -4877,13 +5260,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B24" s="2">
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -4891,13 +5274,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B25" s="2">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -4905,13 +5288,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B26" s="2">
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -4919,13 +5302,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B27" s="2">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -4933,13 +5316,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B28" s="2">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -4947,13 +5330,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B29" s="2">
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -4961,13 +5344,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B30" s="2">
         <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -4975,13 +5358,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B31" s="2">
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -4989,7 +5372,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2">
         <v>50</v>
@@ -4997,7 +5380,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B33" s="2">
         <v>50</v>
@@ -5005,7 +5388,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2">
         <v>50</v>
@@ -5013,7 +5396,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2">
         <v>50</v>
@@ -5021,7 +5404,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2">
         <v>50</v>
@@ -5029,7 +5412,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2">
         <v>50</v>
@@ -5037,7 +5420,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2">
         <v>50</v>
@@ -5045,7 +5428,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2">
         <v>50</v>
@@ -5053,7 +5436,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2">
         <v>50</v>
@@ -5061,7 +5444,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2">
         <v>50</v>
@@ -5069,7 +5452,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2">
         <v>50</v>
@@ -5077,7 +5460,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2">
         <v>50</v>
@@ -5085,7 +5468,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2">
         <v>50</v>
@@ -5093,7 +5476,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B45" s="2">
         <v>50</v>
@@ -5101,7 +5484,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2">
         <v>50</v>
@@ -5109,7 +5492,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B47" s="2">
         <v>50</v>
@@ -5117,7 +5500,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B48" s="2">
         <v>50</v>
@@ -5125,7 +5508,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2">
         <v>50</v>
@@ -5133,7 +5516,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2">
         <v>50</v>
@@ -5141,7 +5524,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2">
         <v>50</v>
@@ -5149,7 +5532,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
@@ -5157,7 +5540,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2">
         <v>50</v>
@@ -5165,7 +5548,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2">
         <v>50</v>
@@ -5173,7 +5556,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2">
         <v>50</v>
@@ -5181,7 +5564,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2">
         <v>50</v>
@@ -5189,7 +5572,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B57" s="2">
         <v>50</v>
@@ -5197,7 +5580,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2">
         <v>50</v>
@@ -5205,7 +5588,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2">
         <v>50</v>
@@ -5213,7 +5596,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2">
         <v>50</v>
@@ -5221,7 +5604,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2">
         <v>50</v>
@@ -5229,7 +5612,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2">
         <v>50</v>
@@ -5237,7 +5620,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B63" s="2">
         <v>50</v>
@@ -5245,7 +5628,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2">
         <v>50</v>
@@ -5253,7 +5636,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B65" s="2">
         <v>50</v>
@@ -5261,7 +5644,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B66" s="2">
         <v>50</v>
@@ -5269,7 +5652,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B67" s="2">
         <v>50</v>
@@ -5277,7 +5660,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B68" s="2">
         <v>50</v>
@@ -5285,7 +5668,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B69" s="2">
         <v>50</v>
@@ -5293,7 +5676,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2">
         <v>50</v>
@@ -5301,7 +5684,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B71" s="2">
         <v>50</v>
@@ -5309,7 +5692,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2">
         <v>50</v>
@@ -5317,7 +5700,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B73" s="2">
         <v>50</v>
@@ -5325,7 +5708,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B74" s="2">
         <v>50</v>
@@ -5333,7 +5716,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2">
         <v>50</v>
@@ -5341,7 +5724,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B76" s="2">
         <v>50</v>
@@ -5349,7 +5732,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B77" s="2">
         <v>50</v>
@@ -5357,7 +5740,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B78" s="2">
         <v>50</v>
@@ -5365,7 +5748,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B79" s="2">
         <v>50</v>
@@ -5373,7 +5756,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B80" s="2">
         <v>50</v>
@@ -5381,7 +5764,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B81" s="2">
         <v>50</v>
@@ -5389,7 +5772,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B82" s="2">
         <v>50</v>
@@ -5397,7 +5780,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B83" s="2">
         <v>50</v>
@@ -5405,7 +5788,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B84" s="2">
         <v>50</v>
@@ -5413,7 +5796,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B85" s="2">
         <v>50</v>
@@ -5421,7 +5804,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B86" s="2">
         <v>50</v>
@@ -5429,7 +5812,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B87" s="2">
         <v>50</v>
@@ -5437,7 +5820,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B88" s="2">
         <v>50</v>
@@ -5445,7 +5828,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B89" s="2">
         <v>50</v>
@@ -5453,7 +5836,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B90" s="2">
         <v>50</v>
@@ -5461,7 +5844,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B91" s="2">
         <v>50</v>
@@ -5469,7 +5852,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B92" s="2">
         <v>50</v>
@@ -5477,7 +5860,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B93" s="2">
         <v>50</v>
@@ -5485,7 +5868,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B94" s="2">
         <v>50</v>
@@ -5493,7 +5876,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B95" s="2">
         <v>50</v>
@@ -5501,7 +5884,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B96" s="2">
         <v>50</v>
@@ -5509,7 +5892,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B97" s="2">
         <v>50</v>
@@ -5517,7 +5900,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B98" s="2">
         <v>50</v>
@@ -5525,7 +5908,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B99" s="2">
         <v>50</v>
@@ -5533,7 +5916,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B100" s="2">
         <v>50</v>
@@ -5541,7 +5924,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B101" s="2">
         <v>50</v>
@@ -5549,7 +5932,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B102" s="2">
         <v>50</v>
@@ -5557,7 +5940,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B103" s="2">
         <v>50</v>
@@ -5565,7 +5948,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B104" s="2">
         <v>50</v>
@@ -5573,7 +5956,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B105" s="2">
         <v>50</v>
@@ -5581,7 +5964,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B106" s="2">
         <v>50</v>
@@ -5589,7 +5972,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B107" s="2">
         <v>50</v>
@@ -5597,7 +5980,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B108" s="2">
         <v>50</v>
@@ -5605,7 +5988,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B109" s="2">
         <v>50</v>
@@ -5613,7 +5996,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B110" s="2">
         <v>50</v>
@@ -5621,7 +6004,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B111" s="2">
         <v>50</v>
@@ -5629,7 +6012,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B112" s="2">
         <v>50</v>
@@ -5637,7 +6020,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B113" s="2">
         <v>50</v>
@@ -5645,7 +6028,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B114" s="2">
         <v>50</v>
@@ -5653,7 +6036,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B115" s="2">
         <v>50</v>
@@ -5661,7 +6044,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B116" s="2">
         <v>50</v>
@@ -5669,7 +6052,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B117" s="2">
         <v>50</v>
@@ -5677,7 +6060,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B118" s="2">
         <v>50</v>
@@ -5685,7 +6068,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B119" s="2">
         <v>50</v>
@@ -5693,7 +6076,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B120" s="2">
         <v>50</v>
@@ -5701,7 +6084,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B121" s="2">
         <v>50</v>
@@ -5709,7 +6092,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B122" s="2">
         <v>50</v>
@@ -5717,7 +6100,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B123" s="2">
         <v>50</v>
@@ -5725,7 +6108,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B124" s="2">
         <v>50</v>
@@ -5733,7 +6116,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B125" s="2">
         <v>50</v>
@@ -5741,7 +6124,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B126" s="2">
         <v>50</v>
@@ -5749,7 +6132,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B127" s="2">
         <v>50</v>
@@ -5757,7 +6140,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B128" s="2">
         <v>50</v>
@@ -5765,7 +6148,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B129" s="2">
         <v>50</v>
@@ -5773,7 +6156,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B130" s="2">
         <v>50</v>
@@ -5781,7 +6164,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B131" s="2">
         <v>50</v>
@@ -5789,7 +6172,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B132" s="2">
         <v>50</v>
@@ -5797,7 +6180,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B133" s="2">
         <v>50</v>
@@ -5805,7 +6188,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B134" s="2">
         <v>50</v>
@@ -5813,7 +6196,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B135" s="2">
         <v>50</v>
@@ -5821,7 +6204,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B136" s="2">
         <v>50</v>
@@ -5829,7 +6212,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B137" s="2">
         <v>50</v>
@@ -5837,7 +6220,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B138" s="2">
         <v>50</v>
@@ -5845,7 +6228,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B139" s="2">
         <v>50</v>
@@ -5853,7 +6236,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B140" s="2">
         <v>50</v>
@@ -5861,7 +6244,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B141" s="2">
         <v>50</v>
@@ -5869,7 +6252,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B142" s="2">
         <v>50</v>
@@ -5877,7 +6260,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B143" s="2">
         <v>50</v>
@@ -5885,7 +6268,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B144" s="2">
         <v>50</v>
@@ -5893,7 +6276,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B145" s="2">
         <v>50</v>
@@ -5901,7 +6284,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B146" s="2">
         <v>50</v>
@@ -5909,7 +6292,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B147" s="2">
         <v>50</v>
@@ -5917,7 +6300,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B148" s="2">
         <v>50</v>
@@ -5925,7 +6308,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B149" s="2">
         <v>50</v>
@@ -5933,7 +6316,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B150" s="2">
         <v>50</v>
@@ -5941,7 +6324,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B151" s="2">
         <v>50</v>
@@ -5949,7 +6332,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B152" s="2">
         <v>50</v>
@@ -5957,7 +6340,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B153" s="2">
         <v>50</v>
@@ -5965,7 +6348,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B154" s="2">
         <v>50</v>
@@ -5973,7 +6356,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B155" s="2">
         <v>50</v>
@@ -5981,7 +6364,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B156" s="2">
         <v>50</v>
@@ -5989,7 +6372,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B157" s="2">
         <v>50</v>
@@ -5997,7 +6380,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B158" s="2">
         <v>50</v>
@@ -6005,7 +6388,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B159" s="2">
         <v>50</v>
@@ -6013,7 +6396,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B160" s="2">
         <v>50</v>
@@ -6021,7 +6404,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B161" s="2">
         <v>50</v>
@@ -6029,7 +6412,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B162" s="2">
         <v>50</v>
@@ -6037,7 +6420,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B163" s="2">
         <v>50</v>
@@ -6045,7 +6428,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B164" s="2">
         <v>50</v>
@@ -6053,7 +6436,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B165" s="2">
         <v>50</v>
@@ -6061,7 +6444,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B166" s="2">
         <v>50</v>
@@ -6069,7 +6452,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B167" s="2">
         <v>50</v>
@@ -6077,7 +6460,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B168" s="2">
         <v>50</v>
@@ -6085,7 +6468,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B169" s="2">
         <v>50</v>
@@ -6093,7 +6476,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B170" s="2">
         <v>50</v>
@@ -6101,7 +6484,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B171" s="2">
         <v>50</v>
@@ -6109,7 +6492,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B172" s="2">
         <v>50</v>
@@ -6117,7 +6500,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B173" s="2">
         <v>50</v>
@@ -6125,7 +6508,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B174" s="2">
         <v>50</v>
@@ -6133,7 +6516,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B175" s="2">
         <v>50</v>
@@ -6141,7 +6524,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B176" s="2">
         <v>50</v>
@@ -6149,7 +6532,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B177" s="2">
         <v>50</v>
@@ -6157,7 +6540,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B178" s="2">
         <v>50</v>
@@ -6165,7 +6548,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B179" s="2">
         <v>50</v>
@@ -6173,7 +6556,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B180" s="2">
         <v>50</v>
@@ -6181,7 +6564,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B181" s="2">
         <v>50</v>
@@ -6189,7 +6572,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B182" s="2">
         <v>50</v>
@@ -6197,7 +6580,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B183" s="2">
         <v>50</v>
@@ -6205,7 +6588,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B184" s="2">
         <v>50</v>
@@ -6213,7 +6596,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B185" s="2">
         <v>50</v>
@@ -6221,7 +6604,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B186" s="2">
         <v>50</v>
@@ -6229,7 +6612,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B187" s="2">
         <v>50</v>
@@ -6237,7 +6620,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B188" s="2">
         <v>50</v>
@@ -6245,7 +6628,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B189" s="2">
         <v>50</v>
@@ -6253,7 +6636,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B190" s="2">
         <v>50</v>
@@ -6261,7 +6644,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B191" s="2">
         <v>50</v>
@@ -6269,7 +6652,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B192" s="2">
         <v>50</v>
@@ -6277,7 +6660,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B193" s="2">
         <v>50</v>
@@ -6285,7 +6668,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B194" s="2">
         <v>50</v>
@@ -6293,7 +6676,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B195" s="2">
         <v>50</v>
@@ -6301,7 +6684,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B196" s="2">
         <v>50</v>
@@ -6309,7 +6692,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B197" s="2">
         <v>50</v>
@@ -6317,7 +6700,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B198" s="2">
         <v>50</v>
@@ -6325,7 +6708,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B199" s="2">
         <v>50</v>
@@ -6333,7 +6716,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B200" s="2">
         <v>50</v>
@@ -6341,7 +6724,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B201" s="2">
         <v>50</v>
@@ -6349,7 +6732,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B202" s="2">
         <v>50</v>
@@ -6357,7 +6740,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B203" s="2">
         <v>50</v>
@@ -6365,7 +6748,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B204" s="2">
         <v>50</v>
@@ -6373,7 +6756,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B205" s="2">
         <v>50</v>
@@ -6381,7 +6764,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B206" s="2">
         <v>50</v>
@@ -6389,7 +6772,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B207" s="2">
         <v>50</v>
@@ -6397,7 +6780,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B208" s="2">
         <v>50</v>
@@ -6405,7 +6788,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B209" s="2">
         <v>50</v>
@@ -6413,7 +6796,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B210" s="2">
         <v>50</v>
@@ -6421,7 +6804,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B211" s="2">
         <v>50</v>
@@ -6429,7 +6812,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B212" s="2">
         <v>50</v>
@@ -6437,7 +6820,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B213" s="2">
         <v>50</v>
@@ -6445,7 +6828,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B214" s="2">
         <v>50</v>
@@ -6453,7 +6836,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B215" s="2">
         <v>50</v>
@@ -6461,7 +6844,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B216" s="2">
         <v>50</v>
@@ -6469,7 +6852,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B217" s="2">
         <v>50</v>
@@ -6477,7 +6860,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B218" s="2">
         <v>50</v>
@@ -6485,7 +6868,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B219" s="2">
         <v>50</v>
@@ -6493,7 +6876,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B220" s="2">
         <v>50</v>
@@ -6501,7 +6884,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B221" s="2">
         <v>50</v>
@@ -6509,7 +6892,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B222" s="2">
         <v>50</v>
@@ -6517,7 +6900,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B223" s="2">
         <v>50</v>
@@ -6525,7 +6908,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B224" s="2">
         <v>50</v>
@@ -6533,7 +6916,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B225" s="2">
         <v>50</v>
@@ -6541,7 +6924,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B226" s="2">
         <v>50</v>
@@ -6549,7 +6932,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B227" s="2">
         <v>50</v>
@@ -6557,7 +6940,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B228" s="2">
         <v>50</v>
@@ -6565,7 +6948,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B229" s="2">
         <v>50</v>
@@ -6573,7 +6956,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B230" s="2">
         <v>50</v>
@@ -6581,7 +6964,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B231" s="2">
         <v>50</v>
@@ -6589,7 +6972,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B232" s="2">
         <v>50</v>
@@ -6597,7 +6980,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B233" s="2">
         <v>50</v>
@@ -6605,7 +6988,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B234" s="2">
         <v>50</v>
@@ -6613,7 +6996,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B235" s="2">
         <v>50</v>
@@ -6621,7 +7004,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B236" s="2">
         <v>50</v>
@@ -6629,7 +7012,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B237" s="2">
         <v>50</v>
@@ -6637,7 +7020,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B238" s="2">
         <v>50</v>
@@ -6645,7 +7028,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B239" s="2">
         <v>50</v>
@@ -6653,7 +7036,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B240" s="2">
         <v>50</v>
@@ -6661,7 +7044,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B241" s="2">
         <v>50</v>
@@ -6669,7 +7052,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B242" s="2">
         <v>50</v>
@@ -6677,7 +7060,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B243" s="2">
         <v>50</v>
@@ -6685,7 +7068,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B244" s="2">
         <v>50</v>
@@ -6704,7 +7087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6723,19 +7106,19 @@
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H3">
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K3">
         <v>50</v>
@@ -6743,19 +7126,19 @@
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E4">
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K4">
         <v>50</v>
@@ -6763,19 +7146,19 @@
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E5">
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="K5">
         <v>50</v>
@@ -6783,7 +7166,7 @@
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E6">
         <v>50</v>

--- a/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
+++ b/Фриланс/Projects/atena.com.ua/хімічні речовини.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="747" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" tabRatio="747" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="хлорне вапно" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="лабомід" sheetId="7" r:id="rId8"/>
     <sheet name="Тринатрийфосфат" sheetId="9" r:id="rId9"/>
     <sheet name="Железный купорос" sheetId="10" r:id="rId10"/>
+    <sheet name="Медный купорос" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="1296">
   <si>
     <t>хлорне вапно</t>
   </si>
@@ -2862,6 +2863,1065 @@
   </si>
   <si>
     <t>цена железного купороса</t>
+  </si>
+  <si>
+    <t>железный купорос,</t>
+  </si>
+  <si>
+    <t>железный купорос для винограда,</t>
+  </si>
+  <si>
+    <t>железный купорос для деревьев,</t>
+  </si>
+  <si>
+    <t>железный купорос осенью,</t>
+  </si>
+  <si>
+    <t>железного купороса,</t>
+  </si>
+  <si>
+    <t>железнодорожный купорос,</t>
+  </si>
+  <si>
+    <t>железный купорос для абрикос,</t>
+  </si>
+  <si>
+    <t>железный купорос для выгребных ям,</t>
+  </si>
+  <si>
+    <t>железный купорос для газона,</t>
+  </si>
+  <si>
+    <t>железный купорос для голубики,</t>
+  </si>
+  <si>
+    <t>железный купорос для гортензии,</t>
+  </si>
+  <si>
+    <t>железный купорос для груши,</t>
+  </si>
+  <si>
+    <t>железный купорос для картофеля,</t>
+  </si>
+  <si>
+    <t>железный купорос для клубники,</t>
+  </si>
+  <si>
+    <t>железный купорос для клубники от хлороза,</t>
+  </si>
+  <si>
+    <t>железный купорос для комнатных цветов,</t>
+  </si>
+  <si>
+    <t>железный купорос для лука,</t>
+  </si>
+  <si>
+    <t>железный купорос для малины,</t>
+  </si>
+  <si>
+    <t>железный купорос для обработки роз,</t>
+  </si>
+  <si>
+    <t>железный купорос для огурцов,</t>
+  </si>
+  <si>
+    <t>железный купорос для персика,</t>
+  </si>
+  <si>
+    <t>железный купорос для роз,</t>
+  </si>
+  <si>
+    <t>железный купорос для сада,</t>
+  </si>
+  <si>
+    <t>железный купорос для смородины,</t>
+  </si>
+  <si>
+    <t>железный купорос для томатов,</t>
+  </si>
+  <si>
+    <t>железный купорос для туалета,</t>
+  </si>
+  <si>
+    <t>сульфат железа препараты,</t>
+  </si>
+  <si>
+    <t>сульфат железа,</t>
+  </si>
+  <si>
+    <t>железо сернокислое,</t>
+  </si>
+  <si>
+    <t>сернокислое железо,</t>
+  </si>
+  <si>
+    <t>железа сульфат,</t>
+  </si>
+  <si>
+    <t>купорос железный,</t>
+  </si>
+  <si>
+    <t>железа закисного сульфат,</t>
+  </si>
+  <si>
+    <t>железный купорос 25 кг,</t>
+  </si>
+  <si>
+    <t>железным купоросом,</t>
+  </si>
+  <si>
+    <t>купорос железа,</t>
+  </si>
+  <si>
+    <t>железа фумарат или сульфат,</t>
+  </si>
+  <si>
+    <t>медный купорос</t>
+  </si>
+  <si>
+    <t>медный купорос купить</t>
+  </si>
+  <si>
+    <t>мідний купорос</t>
+  </si>
+  <si>
+    <t>купить медный купорос</t>
+  </si>
+  <si>
+    <t>купить медный купорос от производителя</t>
+  </si>
+  <si>
+    <t>1 медный купорос</t>
+  </si>
+  <si>
+    <t>1 процентный медный купорос</t>
+  </si>
+  <si>
+    <t>1 процентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>1 раствор медного купороса</t>
+  </si>
+  <si>
+    <t>3 медный купорос</t>
+  </si>
+  <si>
+    <t>3 процентный медный купорос</t>
+  </si>
+  <si>
+    <t>3 процентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>3 раствор медного купороса</t>
+  </si>
+  <si>
+    <t>3 х процентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>5 процентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>medni kuparos</t>
+  </si>
+  <si>
+    <t>алюминиевый купорос</t>
+  </si>
+  <si>
+    <t>аптечный медный купорос</t>
+  </si>
+  <si>
+    <t>безводный медный купорос</t>
+  </si>
+  <si>
+    <t>брызгать деревья медным купоросом</t>
+  </si>
+  <si>
+    <t>виноград и медный купорос</t>
+  </si>
+  <si>
+    <t>виноград медный купорос</t>
+  </si>
+  <si>
+    <t>виноград обработка медным купоросом</t>
+  </si>
+  <si>
+    <t>водный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>дезинфекция медным купоросом</t>
+  </si>
+  <si>
+    <t>дезинфекция почвы медным купоросом</t>
+  </si>
+  <si>
+    <t>жидкий медный купорос</t>
+  </si>
+  <si>
+    <t>заменитель медного купороса</t>
+  </si>
+  <si>
+    <t>из чего состоит медный купорос</t>
+  </si>
+  <si>
+    <t>карбамид и медный купорос</t>
+  </si>
+  <si>
+    <t>карбамид медный купорос</t>
+  </si>
+  <si>
+    <t>карбамид с медным купоросом</t>
+  </si>
+  <si>
+    <t>концентрация медного купороса для обработки деревьев</t>
+  </si>
+  <si>
+    <t>концентрация медного купороса для опрыскивания деревьев</t>
+  </si>
+  <si>
+    <t>кристаллический медный купорос</t>
+  </si>
+  <si>
+    <t>купить купорос</t>
+  </si>
+  <si>
+    <t>купить купорос медный</t>
+  </si>
+  <si>
+    <t>купить медный купорос 1 кг</t>
+  </si>
+  <si>
+    <t>купить медный купорос 25 кг</t>
+  </si>
+  <si>
+    <t>купить медный купорос цена</t>
+  </si>
+  <si>
+    <t>купить медній купорос</t>
+  </si>
+  <si>
+    <t>куплю медный купорос</t>
+  </si>
+  <si>
+    <t>куплю мідний купорос</t>
+  </si>
+  <si>
+    <t>купорос</t>
+  </si>
+  <si>
+    <t>купорос где купить</t>
+  </si>
+  <si>
+    <t>купорос для чего</t>
+  </si>
+  <si>
+    <t>купорос купить</t>
+  </si>
+  <si>
+    <t>купорос меди</t>
+  </si>
+  <si>
+    <t>купорос медный</t>
+  </si>
+  <si>
+    <t>купорос медный купить</t>
+  </si>
+  <si>
+    <t>купорос медный цена</t>
+  </si>
+  <si>
+    <t>купорос от грибка</t>
+  </si>
+  <si>
+    <t>купорос от плесени</t>
+  </si>
+  <si>
+    <t>купорос от фитофторы</t>
+  </si>
+  <si>
+    <t>медного купороса</t>
+  </si>
+  <si>
+    <t>медного купороса купить</t>
+  </si>
+  <si>
+    <t>медной купорос</t>
+  </si>
+  <si>
+    <t>медный антисептик для сада</t>
+  </si>
+  <si>
+    <t>медный купорос 1</t>
+  </si>
+  <si>
+    <t>медный купорос 1 кг</t>
+  </si>
+  <si>
+    <t>медный купорос 1 кг купить</t>
+  </si>
+  <si>
+    <t>медный купорос 1 процентный</t>
+  </si>
+  <si>
+    <t>медный купорос 10 кг купить</t>
+  </si>
+  <si>
+    <t>медный купорос 100 г</t>
+  </si>
+  <si>
+    <t>медный купорос 100 гр</t>
+  </si>
+  <si>
+    <t>медный купорос 25 кг</t>
+  </si>
+  <si>
+    <t>медный купорос 25 кг купить</t>
+  </si>
+  <si>
+    <t>медный купорос 25 кг цена</t>
+  </si>
+  <si>
+    <t>медный купорос 3 процентный</t>
+  </si>
+  <si>
+    <t>медный купорос 300 г</t>
+  </si>
+  <si>
+    <t>медный купорос 5 кг купить</t>
+  </si>
+  <si>
+    <t>медный купорос август</t>
+  </si>
+  <si>
+    <t>медный купорос в лунку</t>
+  </si>
+  <si>
+    <t>медный купорос в огороде</t>
+  </si>
+  <si>
+    <t>медный купорос в садоводстве</t>
+  </si>
+  <si>
+    <t>медный купорос в саду</t>
+  </si>
+  <si>
+    <t>медный купорос в сельском хозяйстве</t>
+  </si>
+  <si>
+    <t>медный купорос в теплице</t>
+  </si>
+  <si>
+    <t>медный купорос виноград</t>
+  </si>
+  <si>
+    <t>медный купорос где взять</t>
+  </si>
+  <si>
+    <t>медный купорос где купить</t>
+  </si>
+  <si>
+    <t>медный купорос где можно купить</t>
+  </si>
+  <si>
+    <t>медный купорос где применяется</t>
+  </si>
+  <si>
+    <t>медный купорос где продается</t>
+  </si>
+  <si>
+    <t>медный купорос деревья</t>
+  </si>
+  <si>
+    <t>медный купорос для</t>
+  </si>
+  <si>
+    <t>медный купорос для арбузов</t>
+  </si>
+  <si>
+    <t>медный купорос для газона</t>
+  </si>
+  <si>
+    <t>медный купорос для гортензии</t>
+  </si>
+  <si>
+    <t>медный купорос для груши</t>
+  </si>
+  <si>
+    <t>медный купорос для дезинфекции</t>
+  </si>
+  <si>
+    <t>медный купорос для дерева</t>
+  </si>
+  <si>
+    <t>медный купорос для земли</t>
+  </si>
+  <si>
+    <t>медный купорос для капусты</t>
+  </si>
+  <si>
+    <t>медный купорос для картофеля</t>
+  </si>
+  <si>
+    <t>медный купорос для картошки</t>
+  </si>
+  <si>
+    <t>медный купорос для клематиса</t>
+  </si>
+  <si>
+    <t>медный купорос для клубники</t>
+  </si>
+  <si>
+    <t>медный купорос для комнатных растений</t>
+  </si>
+  <si>
+    <t>медный купорос для комнатных цветов</t>
+  </si>
+  <si>
+    <t>медный купорос для лечения рака</t>
+  </si>
+  <si>
+    <t>медный купорос для лилий</t>
+  </si>
+  <si>
+    <t>медный купорос для лука</t>
+  </si>
+  <si>
+    <t>медный купорос для лука и чеснока</t>
+  </si>
+  <si>
+    <t>медный купорос для малины</t>
+  </si>
+  <si>
+    <t>медный купорос для можжевельника</t>
+  </si>
+  <si>
+    <t>медный купорос для обеззараживания почвы</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки дерева</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки земли</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки плодовых деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки почвы</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки почвы в теплице</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки растений</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки роз</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки сада</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки теплицы</t>
+  </si>
+  <si>
+    <t>медный купорос для обработки томатов</t>
+  </si>
+  <si>
+    <t>медный купорос для овощей</t>
+  </si>
+  <si>
+    <t>медный купорос для огорода</t>
+  </si>
+  <si>
+    <t>медный купорос для огурцов</t>
+  </si>
+  <si>
+    <t>медный купорос для опрыскивания</t>
+  </si>
+  <si>
+    <t>медный купорос для опрыскивания деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос для опрыскивания томатов</t>
+  </si>
+  <si>
+    <t>медный купорос для орхидей</t>
+  </si>
+  <si>
+    <t>медный купорос для персика</t>
+  </si>
+  <si>
+    <t>медный купорос для перца</t>
+  </si>
+  <si>
+    <t>медный купорос для плодовых деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос для побелки деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос для помидоров</t>
+  </si>
+  <si>
+    <t>медный купорос для почвы</t>
+  </si>
+  <si>
+    <t>медный купорос для растений</t>
+  </si>
+  <si>
+    <t>медный купорос для рододендронов</t>
+  </si>
+  <si>
+    <t>медный купорос для роз</t>
+  </si>
+  <si>
+    <t>медный купорос для сада</t>
+  </si>
+  <si>
+    <t>медный купорос для смородины</t>
+  </si>
+  <si>
+    <t>медный купорос для сосны</t>
+  </si>
+  <si>
+    <t>медный купорос для теплицы</t>
+  </si>
+  <si>
+    <t>медный купорос для томатов</t>
+  </si>
+  <si>
+    <t>медный купорос для томатов и огурцов</t>
+  </si>
+  <si>
+    <t>медный купорос для туи</t>
+  </si>
+  <si>
+    <t>медный купорос для туй</t>
+  </si>
+  <si>
+    <t>медный купорос для хвойных</t>
+  </si>
+  <si>
+    <t>медный купорос для хвойных растений</t>
+  </si>
+  <si>
+    <t>медный купорос для цветов</t>
+  </si>
+  <si>
+    <t>медный купорос для чего</t>
+  </si>
+  <si>
+    <t>медный купорос для чего используется</t>
+  </si>
+  <si>
+    <t>медный купорос для чего нужен</t>
+  </si>
+  <si>
+    <t>медный купорос для чего применяется</t>
+  </si>
+  <si>
+    <t>медный купорос для черешни</t>
+  </si>
+  <si>
+    <t>медный купорос для чеснока</t>
+  </si>
+  <si>
+    <t>медный купорос для яблони</t>
+  </si>
+  <si>
+    <t>медный купорос жидкий</t>
+  </si>
+  <si>
+    <t>медный купорос и виноград</t>
+  </si>
+  <si>
+    <t>медный купорос и карбамид</t>
+  </si>
+  <si>
+    <t>медный купорос и туи</t>
+  </si>
+  <si>
+    <t>медный купорос карбамид</t>
+  </si>
+  <si>
+    <t>медный купорос когда обрабатывать деревья</t>
+  </si>
+  <si>
+    <t>медный купорос купить 1 кг</t>
+  </si>
+  <si>
+    <t>медный купорос купить 25 кг</t>
+  </si>
+  <si>
+    <t>медный купорос купить 5 кг</t>
+  </si>
+  <si>
+    <t>медный купорос купить цена</t>
+  </si>
+  <si>
+    <t>медный купорос на виноград</t>
+  </si>
+  <si>
+    <t>медный купорос на даче</t>
+  </si>
+  <si>
+    <t>медный купорос на деревья</t>
+  </si>
+  <si>
+    <t>медный купорос на клубнику</t>
+  </si>
+  <si>
+    <t>медный купорос на огороде</t>
+  </si>
+  <si>
+    <t>медный купорос на помидоры</t>
+  </si>
+  <si>
+    <t>медный купорос обработка</t>
+  </si>
+  <si>
+    <t>медный купорос обработка деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос обработка земли</t>
+  </si>
+  <si>
+    <t>медный купорос обработка земли в теплице</t>
+  </si>
+  <si>
+    <t>медный купорос обработка огурцов</t>
+  </si>
+  <si>
+    <t>медный купорос обработка почвы</t>
+  </si>
+  <si>
+    <t>медный купорос обработка растений</t>
+  </si>
+  <si>
+    <t>медный купорос обработка сада</t>
+  </si>
+  <si>
+    <t>медный купорос обработка теплицы</t>
+  </si>
+  <si>
+    <t>медный купорос опрыскивание</t>
+  </si>
+  <si>
+    <t>медный купорос опрыскивание деревьев</t>
+  </si>
+  <si>
+    <t>медный купорос от белокрылки</t>
+  </si>
+  <si>
+    <t>медный купорос от болезней растений</t>
+  </si>
+  <si>
+    <t>медный купорос от вредителей</t>
+  </si>
+  <si>
+    <t>медный купорос от вредителей сада</t>
+  </si>
+  <si>
+    <t>медный купорос от грибов на газоне</t>
+  </si>
+  <si>
+    <t>медный купорос от клещей</t>
+  </si>
+  <si>
+    <t>медный купорос от корневой гнили</t>
+  </si>
+  <si>
+    <t>медный купорос от корневой гнили клубники</t>
+  </si>
+  <si>
+    <t>медный купорос от курчавости персика</t>
+  </si>
+  <si>
+    <t>медный купорос от лишайников на деревьях</t>
+  </si>
+  <si>
+    <t>медный купорос от милдью</t>
+  </si>
+  <si>
+    <t>медный купорос от мучнистой росы</t>
+  </si>
+  <si>
+    <t>медный купорос от мха</t>
+  </si>
+  <si>
+    <t>медный купорос от мха на газоне</t>
+  </si>
+  <si>
+    <t>медный купорос от насекомых</t>
+  </si>
+  <si>
+    <t>медный купорос от парши</t>
+  </si>
+  <si>
+    <t>медный купорос от паутинного клеща</t>
+  </si>
+  <si>
+    <t>медный купорос от плесени</t>
+  </si>
+  <si>
+    <t>медный купорос от плесени купить</t>
+  </si>
+  <si>
+    <t>медный купорос от плесени на растениях</t>
+  </si>
+  <si>
+    <t>медный купорос от проволочника</t>
+  </si>
+  <si>
+    <t>медный купорос от сорняков</t>
+  </si>
+  <si>
+    <t>медный купорос от фитофторы</t>
+  </si>
+  <si>
+    <t>медный купорос от фитофторы картофеля</t>
+  </si>
+  <si>
+    <t>медный купорос от фитофторы на картофеле</t>
+  </si>
+  <si>
+    <t>медный купорос от фитофторы на помидорах</t>
+  </si>
+  <si>
+    <t>медный купорос от фитофторы на томатах</t>
+  </si>
+  <si>
+    <t>медный купорос от чего</t>
+  </si>
+  <si>
+    <t>медный купорос от чего помогает</t>
+  </si>
+  <si>
+    <t>медный купорос помидоры</t>
+  </si>
+  <si>
+    <t>медный купорос раствор</t>
+  </si>
+  <si>
+    <t>медный купорос раствор для опрыскивания</t>
+  </si>
+  <si>
+    <t>медный купорос с мочевиной</t>
+  </si>
+  <si>
+    <t>медный купорос сколько стоит</t>
+  </si>
+  <si>
+    <t>медный купорос стоимость</t>
+  </si>
+  <si>
+    <t>медный купорос сульфат меди</t>
+  </si>
+  <si>
+    <t>медный купорос удобрение</t>
+  </si>
+  <si>
+    <t>медный купорос фунгицид</t>
+  </si>
+  <si>
+    <t>медный купорос цена</t>
+  </si>
+  <si>
+    <t>медный купорос цена за 1 кг</t>
+  </si>
+  <si>
+    <t>медный купорос цена за тонну</t>
+  </si>
+  <si>
+    <t>медный купорос чистый купить</t>
+  </si>
+  <si>
+    <t>медный сульфат</t>
+  </si>
+  <si>
+    <t>медный электролит</t>
+  </si>
+  <si>
+    <t>медным купоросом</t>
+  </si>
+  <si>
+    <t>медній купорос</t>
+  </si>
+  <si>
+    <t>мідний купорос для деревьев</t>
+  </si>
+  <si>
+    <t>мідний купорос для саду</t>
+  </si>
+  <si>
+    <t>мідний купорос цена</t>
+  </si>
+  <si>
+    <t>мілний купорос</t>
+  </si>
+  <si>
+    <t>обеззараживание почвы медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка ботвы картофеля медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка груши медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка дупла медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка земли медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка ирисов медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка картофеля медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка картофеля от фитофтороза медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка картофеля от фитофторы медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка картошки медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка клубней картофеля медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка клубники медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка кустов медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка лука медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка луковиц тюльпанов медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка малины медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка медным купоросом деревьев</t>
+  </si>
+  <si>
+    <t>обработка можжевельника медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка огорода медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка огурцов медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка персика медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка плодовых деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка помидоров медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка почвы в теплице медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка почвы медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка ран деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка растений медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка роз медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка смородины мочевиной и медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка срезов деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка стволов деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка теплицы медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка томатов медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка туи медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка туй медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка хвойных медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка чеснока медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка яблони медным купоросом</t>
+  </si>
+  <si>
+    <t>обработка яблонь медным купоросом</t>
+  </si>
+  <si>
+    <t>однопроцентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>опрыскивание деревьев медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание деревьев мочевиной и медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание картофеля медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание клубники медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание огурцов медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание персика медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание сада медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание смородины медным купоросом</t>
+  </si>
+  <si>
+    <t>опрыскивание томатов медным купоросом</t>
+  </si>
+  <si>
+    <t>от чего медный купорос</t>
+  </si>
+  <si>
+    <t>от чего помогает медный купорос</t>
+  </si>
+  <si>
+    <t>полив медным купоросом</t>
+  </si>
+  <si>
+    <t>помидоры фитофтора медный купорос</t>
+  </si>
+  <si>
+    <t>продажа медного купороса</t>
+  </si>
+  <si>
+    <t>продам медный купорос</t>
+  </si>
+  <si>
+    <t>пропорция медного купороса для деревьев</t>
+  </si>
+  <si>
+    <t>пропорция медного купороса для опрыскивания деревьев</t>
+  </si>
+  <si>
+    <t>раствор медного купороса</t>
+  </si>
+  <si>
+    <t>раствор медного купороса для обработки деревьев</t>
+  </si>
+  <si>
+    <t>раствор медного купороса для обработки почвы</t>
+  </si>
+  <si>
+    <t>раствор медного купороса для опрыскивания деревьев</t>
+  </si>
+  <si>
+    <t>раствор медного купороса для роз</t>
+  </si>
+  <si>
+    <t>раствор медного купороса купить</t>
+  </si>
+  <si>
+    <t>раствор медного купороса от плесени</t>
+  </si>
+  <si>
+    <t>раствор медный купорос</t>
+  </si>
+  <si>
+    <t>римский купорос</t>
+  </si>
+  <si>
+    <t>серебряный купорос</t>
+  </si>
+  <si>
+    <t>синий камень медный купорос</t>
+  </si>
+  <si>
+    <t>синий купорос</t>
+  </si>
+  <si>
+    <t>сожгла помидоры медным купоросом</t>
+  </si>
+  <si>
+    <t>стоимость медного купороса</t>
+  </si>
+  <si>
+    <t>сульфат меди где купить</t>
+  </si>
+  <si>
+    <t>сульфат меди для растений</t>
+  </si>
+  <si>
+    <t>сульфат меди купить</t>
+  </si>
+  <si>
+    <t>сульфат меди медный купорос</t>
+  </si>
+  <si>
+    <t>сульфат меди удобрение</t>
+  </si>
+  <si>
+    <t>сульфат меди цена</t>
+  </si>
+  <si>
+    <t>трехпроцентный раствор медного купороса</t>
+  </si>
+  <si>
+    <t>удобрение медный купорос</t>
+  </si>
+  <si>
+    <t>фитофтора медный купорос</t>
+  </si>
+  <si>
+    <t>фунгицид медный купорос</t>
+  </si>
+  <si>
+    <t>хлорокись меди и медный купорос</t>
+  </si>
+  <si>
+    <t>цена медного купороса</t>
+  </si>
+  <si>
+    <t>цена медный купорос</t>
   </si>
 </sst>
 </file>
@@ -3778,20 +4838,2717 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B323"/>
+  <dimension ref="A1:K323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="11" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>632</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>637</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>638</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>639</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>642</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>644</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>646</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>647</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>648</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>650</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>651</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>652</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>653</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>654</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>655</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>656</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>657</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>658</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>659</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>660</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>661</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>662</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>663</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>664</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>665</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>666</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>667</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>668</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>669</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>670</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>671</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>672</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>673</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>674</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>675</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>676</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>677</v>
+      </c>
+      <c r="B58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>678</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>679</v>
+      </c>
+      <c r="B60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>680</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>681</v>
+      </c>
+      <c r="B62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>682</v>
+      </c>
+      <c r="B63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>683</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>684</v>
+      </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>685</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>686</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>687</v>
+      </c>
+      <c r="B68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>688</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>689</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>690</v>
+      </c>
+      <c r="B71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>691</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>692</v>
+      </c>
+      <c r="B73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>693</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>694</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>695</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>696</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>697</v>
+      </c>
+      <c r="B78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>698</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>699</v>
+      </c>
+      <c r="B80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>700</v>
+      </c>
+      <c r="B81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>701</v>
+      </c>
+      <c r="B82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>702</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>703</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>704</v>
+      </c>
+      <c r="B85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>705</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>706</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>707</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>708</v>
+      </c>
+      <c r="B89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>709</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>710</v>
+      </c>
+      <c r="B91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>711</v>
+      </c>
+      <c r="B92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>712</v>
+      </c>
+      <c r="B93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>713</v>
+      </c>
+      <c r="B94">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>714</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>715</v>
+      </c>
+      <c r="B96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>716</v>
+      </c>
+      <c r="B97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>717</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>718</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>719</v>
+      </c>
+      <c r="B100">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>720</v>
+      </c>
+      <c r="B101">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>721</v>
+      </c>
+      <c r="B102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>722</v>
+      </c>
+      <c r="B103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>723</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>724</v>
+      </c>
+      <c r="B105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>725</v>
+      </c>
+      <c r="B106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>726</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>727</v>
+      </c>
+      <c r="B108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>728</v>
+      </c>
+      <c r="B109">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>729</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>730</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>731</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>732</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>733</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>734</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>735</v>
+      </c>
+      <c r="B116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>736</v>
+      </c>
+      <c r="B117">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>737</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>738</v>
+      </c>
+      <c r="B119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>739</v>
+      </c>
+      <c r="B120">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>740</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>741</v>
+      </c>
+      <c r="B122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>742</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>743</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>744</v>
+      </c>
+      <c r="B125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>745</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>746</v>
+      </c>
+      <c r="B127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>747</v>
+      </c>
+      <c r="B128">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>748</v>
+      </c>
+      <c r="B129">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>749</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>750</v>
+      </c>
+      <c r="B131">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>751</v>
+      </c>
+      <c r="B132">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>752</v>
+      </c>
+      <c r="B133">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>753</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>754</v>
+      </c>
+      <c r="B135">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>755</v>
+      </c>
+      <c r="B136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>756</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>757</v>
+      </c>
+      <c r="B138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>758</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>759</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>760</v>
+      </c>
+      <c r="B141">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>761</v>
+      </c>
+      <c r="B142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>762</v>
+      </c>
+      <c r="B143">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>763</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>764</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>765</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>766</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>767</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>768</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>769</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>770</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>771</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>772</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>773</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>774</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>775</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>776</v>
+      </c>
+      <c r="B157">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>777</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>778</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>779</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>780</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>781</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>782</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>783</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>784</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>785</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>786</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>787</v>
+      </c>
+      <c r="B168">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>788</v>
+      </c>
+      <c r="B169">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>789</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>790</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>791</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>792</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>793</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>794</v>
+      </c>
+      <c r="B175">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>795</v>
+      </c>
+      <c r="B176">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>796</v>
+      </c>
+      <c r="B177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>797</v>
+      </c>
+      <c r="B178">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>798</v>
+      </c>
+      <c r="B179">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>799</v>
+      </c>
+      <c r="B180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>800</v>
+      </c>
+      <c r="B181">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>801</v>
+      </c>
+      <c r="B182">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>802</v>
+      </c>
+      <c r="B183">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>803</v>
+      </c>
+      <c r="B184">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>804</v>
+      </c>
+      <c r="B185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>805</v>
+      </c>
+      <c r="B186">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>806</v>
+      </c>
+      <c r="B187">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>807</v>
+      </c>
+      <c r="B188">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>808</v>
+      </c>
+      <c r="B189">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>809</v>
+      </c>
+      <c r="B190">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>810</v>
+      </c>
+      <c r="B191">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>811</v>
+      </c>
+      <c r="B192">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>812</v>
+      </c>
+      <c r="B193">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>813</v>
+      </c>
+      <c r="B194">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>814</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>815</v>
+      </c>
+      <c r="B196">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>816</v>
+      </c>
+      <c r="B197">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>817</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>818</v>
+      </c>
+      <c r="B199">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>819</v>
+      </c>
+      <c r="B200">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>820</v>
+      </c>
+      <c r="B201">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>821</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>822</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>823</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>824</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>825</v>
+      </c>
+      <c r="B206">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>826</v>
+      </c>
+      <c r="B207">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>827</v>
+      </c>
+      <c r="B208">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>828</v>
+      </c>
+      <c r="B209">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>829</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>830</v>
+      </c>
+      <c r="B211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>831</v>
+      </c>
+      <c r="B212">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>832</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>833</v>
+      </c>
+      <c r="B214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>834</v>
+      </c>
+      <c r="B215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>835</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>836</v>
+      </c>
+      <c r="B217">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>837</v>
+      </c>
+      <c r="B218">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>838</v>
+      </c>
+      <c r="B219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>839</v>
+      </c>
+      <c r="B220">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>840</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>841</v>
+      </c>
+      <c r="B222">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>842</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>843</v>
+      </c>
+      <c r="B224">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>844</v>
+      </c>
+      <c r="B225">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>845</v>
+      </c>
+      <c r="B226">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>846</v>
+      </c>
+      <c r="B227">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>847</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>848</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>849</v>
+      </c>
+      <c r="B230">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>850</v>
+      </c>
+      <c r="B231">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>851</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>852</v>
+      </c>
+      <c r="B233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>853</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>854</v>
+      </c>
+      <c r="B235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>855</v>
+      </c>
+      <c r="B236">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>856</v>
+      </c>
+      <c r="B237">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>857</v>
+      </c>
+      <c r="B238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>858</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>859</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>860</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>861</v>
+      </c>
+      <c r="B242">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>862</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>863</v>
+      </c>
+      <c r="B244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>864</v>
+      </c>
+      <c r="B245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>865</v>
+      </c>
+      <c r="B246">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>866</v>
+      </c>
+      <c r="B247">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>867</v>
+      </c>
+      <c r="B248">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>868</v>
+      </c>
+      <c r="B249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>869</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>870</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>871</v>
+      </c>
+      <c r="B252">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>872</v>
+      </c>
+      <c r="B253">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>873</v>
+      </c>
+      <c r="B254">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>874</v>
+      </c>
+      <c r="B255">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>875</v>
+      </c>
+      <c r="B256">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>876</v>
+      </c>
+      <c r="B257">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>877</v>
+      </c>
+      <c r="B258">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>878</v>
+      </c>
+      <c r="B259">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>879</v>
+      </c>
+      <c r="B260">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>880</v>
+      </c>
+      <c r="B261">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>881</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>882</v>
+      </c>
+      <c r="B263">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>883</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>884</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>885</v>
+      </c>
+      <c r="B266">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>886</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>887</v>
+      </c>
+      <c r="B268">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>888</v>
+      </c>
+      <c r="B269">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>889</v>
+      </c>
+      <c r="B270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>890</v>
+      </c>
+      <c r="B271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>891</v>
+      </c>
+      <c r="B272">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>892</v>
+      </c>
+      <c r="B273">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>893</v>
+      </c>
+      <c r="B274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>894</v>
+      </c>
+      <c r="B275">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>895</v>
+      </c>
+      <c r="B276">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>896</v>
+      </c>
+      <c r="B277">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>897</v>
+      </c>
+      <c r="B278">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>898</v>
+      </c>
+      <c r="B279">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>899</v>
+      </c>
+      <c r="B280">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>900</v>
+      </c>
+      <c r="B281">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>901</v>
+      </c>
+      <c r="B282">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>902</v>
+      </c>
+      <c r="B283">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>903</v>
+      </c>
+      <c r="B284">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>904</v>
+      </c>
+      <c r="B285">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>905</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>906</v>
+      </c>
+      <c r="B287">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>907</v>
+      </c>
+      <c r="B288">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>908</v>
+      </c>
+      <c r="B289">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>909</v>
+      </c>
+      <c r="B290">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>910</v>
+      </c>
+      <c r="B291">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>911</v>
+      </c>
+      <c r="B292">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>912</v>
+      </c>
+      <c r="B293">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>913</v>
+      </c>
+      <c r="B294">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>914</v>
+      </c>
+      <c r="B295">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>915</v>
+      </c>
+      <c r="B296">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>916</v>
+      </c>
+      <c r="B297">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>917</v>
+      </c>
+      <c r="B298">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>918</v>
+      </c>
+      <c r="B299">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>919</v>
+      </c>
+      <c r="B300">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>920</v>
+      </c>
+      <c r="B301">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>921</v>
+      </c>
+      <c r="B302">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>922</v>
+      </c>
+      <c r="B303">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>923</v>
+      </c>
+      <c r="B304">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>924</v>
+      </c>
+      <c r="B305">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>925</v>
+      </c>
+      <c r="B306">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>926</v>
+      </c>
+      <c r="B307">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>927</v>
+      </c>
+      <c r="B308">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>928</v>
+      </c>
+      <c r="B309">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>929</v>
+      </c>
+      <c r="B310">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>930</v>
+      </c>
+      <c r="B311">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>931</v>
+      </c>
+      <c r="B312">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>932</v>
+      </c>
+      <c r="B313">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>933</v>
+      </c>
+      <c r="B314">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>934</v>
+      </c>
+      <c r="B315">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>935</v>
+      </c>
+      <c r="B316">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>936</v>
+      </c>
+      <c r="B317">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>937</v>
+      </c>
+      <c r="B318">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>938</v>
+      </c>
+      <c r="B319">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>939</v>
+      </c>
+      <c r="B320">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>940</v>
+      </c>
+      <c r="B321">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>941</v>
+      </c>
+      <c r="B322">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>942</v>
+      </c>
+      <c r="B323">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B319"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>980</v>
       </c>
       <c r="B4">
         <v>5000</v>
@@ -3799,31 +7556,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>624</v>
+        <v>981</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>982</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>983</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>627</v>
+        <v>984</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -3831,15 +7588,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>628</v>
+        <v>985</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>629</v>
+        <v>986</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -3847,7 +7604,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>630</v>
+        <v>987</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -3855,7 +7612,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>631</v>
+        <v>988</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -3863,7 +7620,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>989</v>
       </c>
       <c r="B13">
         <v>50</v>
@@ -3871,7 +7628,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>633</v>
+        <v>990</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -3879,7 +7636,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>991</v>
       </c>
       <c r="B15">
         <v>50</v>
@@ -3887,7 +7644,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>992</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -3895,7 +7652,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>636</v>
+        <v>993</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -3903,7 +7660,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>637</v>
+        <v>994</v>
       </c>
       <c r="B18">
         <v>50</v>
@@ -3911,7 +7668,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>638</v>
+        <v>995</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -3919,7 +7676,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>996</v>
       </c>
       <c r="B20">
         <v>50</v>
@@ -3927,7 +7684,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>640</v>
+        <v>997</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -3935,7 +7692,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>641</v>
+        <v>998</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -3943,7 +7700,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>642</v>
+        <v>999</v>
       </c>
       <c r="B23">
         <v>50</v>
@@ -3951,7 +7708,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>643</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>50</v>
@@ -3959,7 +7716,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>644</v>
+        <v>1001</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -3967,7 +7724,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>645</v>
+        <v>1002</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -3975,7 +7732,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>646</v>
+        <v>1003</v>
       </c>
       <c r="B27">
         <v>50</v>
@@ -3983,7 +7740,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>647</v>
+        <v>1004</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -3991,7 +7748,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>648</v>
+        <v>1005</v>
       </c>
       <c r="B29">
         <v>50</v>
@@ -3999,7 +7756,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>1006</v>
       </c>
       <c r="B30">
         <v>50</v>
@@ -4007,7 +7764,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>650</v>
+        <v>1007</v>
       </c>
       <c r="B31">
         <v>50</v>
@@ -4015,7 +7772,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>651</v>
+        <v>1008</v>
       </c>
       <c r="B32">
         <v>50</v>
@@ -4023,7 +7780,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>652</v>
+        <v>1009</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -4031,7 +7788,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>653</v>
+        <v>1010</v>
       </c>
       <c r="B34">
         <v>50</v>
@@ -4039,7 +7796,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>654</v>
+        <v>1011</v>
       </c>
       <c r="B35">
         <v>50</v>
@@ -4047,7 +7804,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>655</v>
+        <v>1012</v>
       </c>
       <c r="B36">
         <v>50</v>
@@ -4055,7 +7812,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>656</v>
+        <v>1013</v>
       </c>
       <c r="B37">
         <v>50</v>
@@ -4063,7 +7820,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>657</v>
+        <v>1014</v>
       </c>
       <c r="B38">
         <v>50</v>
@@ -4071,7 +7828,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>658</v>
+        <v>1015</v>
       </c>
       <c r="B39">
         <v>50</v>
@@ -4079,7 +7836,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>659</v>
+        <v>1016</v>
       </c>
       <c r="B40">
         <v>50</v>
@@ -4087,7 +7844,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>660</v>
+        <v>1017</v>
       </c>
       <c r="B41">
         <v>50</v>
@@ -4095,7 +7852,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>661</v>
+        <v>1018</v>
       </c>
       <c r="B42">
         <v>50</v>
@@ -4103,7 +7860,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>662</v>
+        <v>1019</v>
       </c>
       <c r="B43">
         <v>50</v>
@@ -4111,7 +7868,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>663</v>
+        <v>1020</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -4119,7 +7876,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>664</v>
+        <v>1021</v>
       </c>
       <c r="B45">
         <v>50</v>
@@ -4127,7 +7884,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>665</v>
+        <v>1022</v>
       </c>
       <c r="B46">
         <v>50</v>
@@ -4135,15 +7892,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>666</v>
+        <v>1023</v>
       </c>
       <c r="B47">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>667</v>
+        <v>1024</v>
       </c>
       <c r="B48">
         <v>50</v>
@@ -4151,7 +7908,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>668</v>
+        <v>1025</v>
       </c>
       <c r="B49">
         <v>50</v>
@@ -4159,7 +7916,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>669</v>
+        <v>1026</v>
       </c>
       <c r="B50">
         <v>50</v>
@@ -4167,7 +7924,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>670</v>
+        <v>1027</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -4175,15 +7932,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>671</v>
+        <v>1028</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>672</v>
+        <v>1029</v>
       </c>
       <c r="B53">
         <v>50</v>
@@ -4191,7 +7948,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>673</v>
+        <v>1030</v>
       </c>
       <c r="B54">
         <v>50</v>
@@ -4199,7 +7956,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>674</v>
+        <v>1031</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -4207,7 +7964,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>675</v>
+        <v>1032</v>
       </c>
       <c r="B56">
         <v>50</v>
@@ -4215,7 +7972,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>676</v>
+        <v>1033</v>
       </c>
       <c r="B57">
         <v>50</v>
@@ -4223,7 +7980,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>677</v>
+        <v>1034</v>
       </c>
       <c r="B58">
         <v>50</v>
@@ -4231,7 +7988,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>678</v>
+        <v>1035</v>
       </c>
       <c r="B59">
         <v>50</v>
@@ -4239,7 +7996,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>679</v>
+        <v>1036</v>
       </c>
       <c r="B60">
         <v>50</v>
@@ -4247,7 +8004,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>680</v>
+        <v>1037</v>
       </c>
       <c r="B61">
         <v>50</v>
@@ -4255,7 +8012,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>681</v>
+        <v>1038</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4263,7 +8020,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>682</v>
+        <v>1039</v>
       </c>
       <c r="B63">
         <v>50</v>
@@ -4271,7 +8028,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>683</v>
+        <v>1040</v>
       </c>
       <c r="B64">
         <v>50</v>
@@ -4279,7 +8036,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>684</v>
+        <v>1041</v>
       </c>
       <c r="B65">
         <v>50</v>
@@ -4287,15 +8044,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>685</v>
+        <v>1042</v>
       </c>
       <c r="B66">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>686</v>
+        <v>1043</v>
       </c>
       <c r="B67">
         <v>50</v>
@@ -4303,7 +8060,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>687</v>
+        <v>1044</v>
       </c>
       <c r="B68">
         <v>50</v>
@@ -4311,7 +8068,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>688</v>
+        <v>1045</v>
       </c>
       <c r="B69">
         <v>50</v>
@@ -4319,7 +8076,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>689</v>
+        <v>1046</v>
       </c>
       <c r="B70">
         <v>50</v>
@@ -4327,7 +8084,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>690</v>
+        <v>1047</v>
       </c>
       <c r="B71">
         <v>50</v>
@@ -4335,7 +8092,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>691</v>
+        <v>1048</v>
       </c>
       <c r="B72">
         <v>50</v>
@@ -4343,7 +8100,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>692</v>
+        <v>1049</v>
       </c>
       <c r="B73">
         <v>50</v>
@@ -4351,7 +8108,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>693</v>
+        <v>1050</v>
       </c>
       <c r="B74">
         <v>50</v>
@@ -4359,7 +8116,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>694</v>
+        <v>1051</v>
       </c>
       <c r="B75">
         <v>50</v>
@@ -4367,7 +8124,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>695</v>
+        <v>1052</v>
       </c>
       <c r="B76">
         <v>50</v>
@@ -4375,7 +8132,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>696</v>
+        <v>1053</v>
       </c>
       <c r="B77">
         <v>50</v>
@@ -4383,7 +8140,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>697</v>
+        <v>1054</v>
       </c>
       <c r="B78">
         <v>50</v>
@@ -4391,7 +8148,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>698</v>
+        <v>1055</v>
       </c>
       <c r="B79">
         <v>50</v>
@@ -4399,7 +8156,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>699</v>
+        <v>1056</v>
       </c>
       <c r="B80">
         <v>50</v>
@@ -4407,7 +8164,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>700</v>
+        <v>1057</v>
       </c>
       <c r="B81">
         <v>50</v>
@@ -4415,7 +8172,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>701</v>
+        <v>1058</v>
       </c>
       <c r="B82">
         <v>50</v>
@@ -4423,7 +8180,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>702</v>
+        <v>1059</v>
       </c>
       <c r="B83">
         <v>50</v>
@@ -4431,7 +8188,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>703</v>
+        <v>1060</v>
       </c>
       <c r="B84">
         <v>50</v>
@@ -4439,7 +8196,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>704</v>
+        <v>1061</v>
       </c>
       <c r="B85">
         <v>50</v>
@@ -4447,7 +8204,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>705</v>
+        <v>1062</v>
       </c>
       <c r="B86">
         <v>50</v>
@@ -4455,7 +8212,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>706</v>
+        <v>1063</v>
       </c>
       <c r="B87">
         <v>50</v>
@@ -4463,7 +8220,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>707</v>
+        <v>1064</v>
       </c>
       <c r="B88">
         <v>50</v>
@@ -4471,7 +8228,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>708</v>
+        <v>1065</v>
       </c>
       <c r="B89">
         <v>50</v>
@@ -4479,7 +8236,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>709</v>
+        <v>1066</v>
       </c>
       <c r="B90">
         <v>50</v>
@@ -4487,7 +8244,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>710</v>
+        <v>1067</v>
       </c>
       <c r="B91">
         <v>50</v>
@@ -4495,7 +8252,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>711</v>
+        <v>1068</v>
       </c>
       <c r="B92">
         <v>50</v>
@@ -4503,7 +8260,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>712</v>
+        <v>1069</v>
       </c>
       <c r="B93">
         <v>50</v>
@@ -4511,7 +8268,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>713</v>
+        <v>1070</v>
       </c>
       <c r="B94">
         <v>50</v>
@@ -4519,15 +8276,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>714</v>
+        <v>1071</v>
       </c>
       <c r="B95">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>715</v>
+        <v>1072</v>
       </c>
       <c r="B96">
         <v>50</v>
@@ -4535,7 +8292,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>716</v>
+        <v>1073</v>
       </c>
       <c r="B97">
         <v>50</v>
@@ -4543,7 +8300,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>717</v>
+        <v>1074</v>
       </c>
       <c r="B98">
         <v>50</v>
@@ -4551,7 +8308,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>718</v>
+        <v>1075</v>
       </c>
       <c r="B99">
         <v>50</v>
@@ -4559,7 +8316,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>1076</v>
       </c>
       <c r="B100">
         <v>50</v>
@@ -4567,7 +8324,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>720</v>
+        <v>1077</v>
       </c>
       <c r="B101">
         <v>50</v>
@@ -4575,7 +8332,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>721</v>
+        <v>1078</v>
       </c>
       <c r="B102">
         <v>50</v>
@@ -4583,7 +8340,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>722</v>
+        <v>1079</v>
       </c>
       <c r="B103">
         <v>50</v>
@@ -4591,7 +8348,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>723</v>
+        <v>1080</v>
       </c>
       <c r="B104">
         <v>50</v>
@@ -4599,7 +8356,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>724</v>
+        <v>1081</v>
       </c>
       <c r="B105">
         <v>50</v>
@@ -4607,7 +8364,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>725</v>
+        <v>1082</v>
       </c>
       <c r="B106">
         <v>50</v>
@@ -4615,7 +8372,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>726</v>
+        <v>1083</v>
       </c>
       <c r="B107">
         <v>50</v>
@@ -4623,7 +8380,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>727</v>
+        <v>1084</v>
       </c>
       <c r="B108">
         <v>50</v>
@@ -4631,7 +8388,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>728</v>
+        <v>1085</v>
       </c>
       <c r="B109">
         <v>50</v>
@@ -4639,7 +8396,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>729</v>
+        <v>1086</v>
       </c>
       <c r="B110">
         <v>50</v>
@@ -4647,7 +8404,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>730</v>
+        <v>1087</v>
       </c>
       <c r="B111">
         <v>50</v>
@@ -4655,7 +8412,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>731</v>
+        <v>1088</v>
       </c>
       <c r="B112">
         <v>50</v>
@@ -4663,7 +8420,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>732</v>
+        <v>1089</v>
       </c>
       <c r="B113">
         <v>50</v>
@@ -4671,7 +8428,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>733</v>
+        <v>1090</v>
       </c>
       <c r="B114">
         <v>50</v>
@@ -4679,7 +8436,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>734</v>
+        <v>1091</v>
       </c>
       <c r="B115">
         <v>50</v>
@@ -4687,7 +8444,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>735</v>
+        <v>1092</v>
       </c>
       <c r="B116">
         <v>50</v>
@@ -4695,7 +8452,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>736</v>
+        <v>1093</v>
       </c>
       <c r="B117">
         <v>50</v>
@@ -4703,7 +8460,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>737</v>
+        <v>1094</v>
       </c>
       <c r="B118">
         <v>50</v>
@@ -4711,7 +8468,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>738</v>
+        <v>1095</v>
       </c>
       <c r="B119">
         <v>50</v>
@@ -4719,7 +8476,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>739</v>
+        <v>1096</v>
       </c>
       <c r="B120">
         <v>50</v>
@@ -4727,7 +8484,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>740</v>
+        <v>1097</v>
       </c>
       <c r="B121">
         <v>50</v>
@@ -4735,7 +8492,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>741</v>
+        <v>1098</v>
       </c>
       <c r="B122">
         <v>50</v>
@@ -4743,7 +8500,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>742</v>
+        <v>1099</v>
       </c>
       <c r="B123">
         <v>50</v>
@@ -4751,7 +8508,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>743</v>
+        <v>1100</v>
       </c>
       <c r="B124">
         <v>50</v>
@@ -4759,7 +8516,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>744</v>
+        <v>1101</v>
       </c>
       <c r="B125">
         <v>50</v>
@@ -4767,7 +8524,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>745</v>
+        <v>1102</v>
       </c>
       <c r="B126">
         <v>50</v>
@@ -4775,7 +8532,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>746</v>
+        <v>1103</v>
       </c>
       <c r="B127">
         <v>50</v>
@@ -4783,7 +8540,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>747</v>
+        <v>1104</v>
       </c>
       <c r="B128">
         <v>50</v>
@@ -4791,7 +8548,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>748</v>
+        <v>1105</v>
       </c>
       <c r="B129">
         <v>50</v>
@@ -4799,7 +8556,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>749</v>
+        <v>1106</v>
       </c>
       <c r="B130">
         <v>50</v>
@@ -4807,7 +8564,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>750</v>
+        <v>1107</v>
       </c>
       <c r="B131">
         <v>50</v>
@@ -4815,7 +8572,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>751</v>
+        <v>1108</v>
       </c>
       <c r="B132">
         <v>50</v>
@@ -4823,7 +8580,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>752</v>
+        <v>1109</v>
       </c>
       <c r="B133">
         <v>50</v>
@@ -4831,7 +8588,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>753</v>
+        <v>1110</v>
       </c>
       <c r="B134">
         <v>50</v>
@@ -4839,7 +8596,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>754</v>
+        <v>1111</v>
       </c>
       <c r="B135">
         <v>50</v>
@@ -4847,7 +8604,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>755</v>
+        <v>1112</v>
       </c>
       <c r="B136">
         <v>50</v>
@@ -4855,7 +8612,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>756</v>
+        <v>1113</v>
       </c>
       <c r="B137">
         <v>50</v>
@@ -4863,7 +8620,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>757</v>
+        <v>1114</v>
       </c>
       <c r="B138">
         <v>50</v>
@@ -4871,7 +8628,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>758</v>
+        <v>1115</v>
       </c>
       <c r="B139">
         <v>50</v>
@@ -4879,7 +8636,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>759</v>
+        <v>1116</v>
       </c>
       <c r="B140">
         <v>50</v>
@@ -4887,7 +8644,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>760</v>
+        <v>1117</v>
       </c>
       <c r="B141">
         <v>50</v>
@@ -4895,7 +8652,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>761</v>
+        <v>1118</v>
       </c>
       <c r="B142">
         <v>50</v>
@@ -4903,7 +8660,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>762</v>
+        <v>1119</v>
       </c>
       <c r="B143">
         <v>50</v>
@@ -4911,7 +8668,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>763</v>
+        <v>1120</v>
       </c>
       <c r="B144">
         <v>50</v>
@@ -4919,7 +8676,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>764</v>
+        <v>1121</v>
       </c>
       <c r="B145">
         <v>50</v>
@@ -4927,7 +8684,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>765</v>
+        <v>1122</v>
       </c>
       <c r="B146">
         <v>50</v>
@@ -4935,7 +8692,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>766</v>
+        <v>1123</v>
       </c>
       <c r="B147">
         <v>50</v>
@@ -4943,7 +8700,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>767</v>
+        <v>1124</v>
       </c>
       <c r="B148">
         <v>50</v>
@@ -4951,7 +8708,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>768</v>
+        <v>1125</v>
       </c>
       <c r="B149">
         <v>50</v>
@@ -4959,7 +8716,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>769</v>
+        <v>1126</v>
       </c>
       <c r="B150">
         <v>50</v>
@@ -4967,7 +8724,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>770</v>
+        <v>1127</v>
       </c>
       <c r="B151">
         <v>50</v>
@@ -4975,7 +8732,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>771</v>
+        <v>1128</v>
       </c>
       <c r="B152">
         <v>50</v>
@@ -4983,7 +8740,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>772</v>
+        <v>1129</v>
       </c>
       <c r="B153">
         <v>50</v>
@@ -4991,7 +8748,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>773</v>
+        <v>1130</v>
       </c>
       <c r="B154">
         <v>50</v>
@@ -4999,7 +8756,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>774</v>
+        <v>1131</v>
       </c>
       <c r="B155">
         <v>50</v>
@@ -5007,7 +8764,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>775</v>
+        <v>1132</v>
       </c>
       <c r="B156">
         <v>50</v>
@@ -5015,7 +8772,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>776</v>
+        <v>1133</v>
       </c>
       <c r="B157">
         <v>50</v>
@@ -5023,7 +8780,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>777</v>
+        <v>1134</v>
       </c>
       <c r="B158">
         <v>50</v>
@@ -5031,7 +8788,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>778</v>
+        <v>1135</v>
       </c>
       <c r="B159">
         <v>50</v>
@@ -5039,7 +8796,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>779</v>
+        <v>1136</v>
       </c>
       <c r="B160">
         <v>50</v>
@@ -5047,7 +8804,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>780</v>
+        <v>1137</v>
       </c>
       <c r="B161">
         <v>50</v>
@@ -5055,7 +8812,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>781</v>
+        <v>1138</v>
       </c>
       <c r="B162">
         <v>50</v>
@@ -5063,7 +8820,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>782</v>
+        <v>1139</v>
       </c>
       <c r="B163">
         <v>50</v>
@@ -5071,7 +8828,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>783</v>
+        <v>1140</v>
       </c>
       <c r="B164">
         <v>50</v>
@@ -5079,7 +8836,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>784</v>
+        <v>1141</v>
       </c>
       <c r="B165">
         <v>50</v>
@@ -5087,7 +8844,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>785</v>
+        <v>1142</v>
       </c>
       <c r="B166">
         <v>50</v>
@@ -5095,7 +8852,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>786</v>
+        <v>1143</v>
       </c>
       <c r="B167">
         <v>50</v>
@@ -5103,7 +8860,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>787</v>
+        <v>1144</v>
       </c>
       <c r="B168">
         <v>50</v>
@@ -5111,7 +8868,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>788</v>
+        <v>1145</v>
       </c>
       <c r="B169">
         <v>50</v>
@@ -5119,7 +8876,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>789</v>
+        <v>1146</v>
       </c>
       <c r="B170">
         <v>50</v>
@@ -5127,7 +8884,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>790</v>
+        <v>1147</v>
       </c>
       <c r="B171">
         <v>50</v>
@@ -5135,7 +8892,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>791</v>
+        <v>1148</v>
       </c>
       <c r="B172">
         <v>50</v>
@@ -5143,7 +8900,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>792</v>
+        <v>1149</v>
       </c>
       <c r="B173">
         <v>50</v>
@@ -5151,7 +8908,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>793</v>
+        <v>1150</v>
       </c>
       <c r="B174">
         <v>50</v>
@@ -5159,7 +8916,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>794</v>
+        <v>1151</v>
       </c>
       <c r="B175">
         <v>50</v>
@@ -5167,7 +8924,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>795</v>
+        <v>1152</v>
       </c>
       <c r="B176">
         <v>50</v>
@@ -5175,7 +8932,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>796</v>
+        <v>1153</v>
       </c>
       <c r="B177">
         <v>50</v>
@@ -5183,7 +8940,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>797</v>
+        <v>1154</v>
       </c>
       <c r="B178">
         <v>50</v>
@@ -5191,7 +8948,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>798</v>
+        <v>1155</v>
       </c>
       <c r="B179">
         <v>50</v>
@@ -5199,7 +8956,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>799</v>
+        <v>1156</v>
       </c>
       <c r="B180">
         <v>50</v>
@@ -5207,7 +8964,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>800</v>
+        <v>1157</v>
       </c>
       <c r="B181">
         <v>50</v>
@@ -5215,7 +8972,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>801</v>
+        <v>1158</v>
       </c>
       <c r="B182">
         <v>50</v>
@@ -5223,7 +8980,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>802</v>
+        <v>1159</v>
       </c>
       <c r="B183">
         <v>50</v>
@@ -5231,7 +8988,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>803</v>
+        <v>1160</v>
       </c>
       <c r="B184">
         <v>50</v>
@@ -5239,7 +8996,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>804</v>
+        <v>1161</v>
       </c>
       <c r="B185">
         <v>50</v>
@@ -5247,7 +9004,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>805</v>
+        <v>1162</v>
       </c>
       <c r="B186">
         <v>50</v>
@@ -5255,7 +9012,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>806</v>
+        <v>1163</v>
       </c>
       <c r="B187">
         <v>50</v>
@@ -5263,7 +9020,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>807</v>
+        <v>1164</v>
       </c>
       <c r="B188">
         <v>50</v>
@@ -5271,7 +9028,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>808</v>
+        <v>1165</v>
       </c>
       <c r="B189">
         <v>50</v>
@@ -5279,7 +9036,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>809</v>
+        <v>1166</v>
       </c>
       <c r="B190">
         <v>50</v>
@@ -5287,7 +9044,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>810</v>
+        <v>1167</v>
       </c>
       <c r="B191">
         <v>50</v>
@@ -5295,7 +9052,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>811</v>
+        <v>1168</v>
       </c>
       <c r="B192">
         <v>50</v>
@@ -5303,7 +9060,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>812</v>
+        <v>1169</v>
       </c>
       <c r="B193">
         <v>50</v>
@@ -5311,7 +9068,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>813</v>
+        <v>1170</v>
       </c>
       <c r="B194">
         <v>50</v>
@@ -5319,7 +9076,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>814</v>
+        <v>1171</v>
       </c>
       <c r="B195">
         <v>50</v>
@@ -5327,7 +9084,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>815</v>
+        <v>1172</v>
       </c>
       <c r="B196">
         <v>50</v>
@@ -5335,7 +9092,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>816</v>
+        <v>1173</v>
       </c>
       <c r="B197">
         <v>50</v>
@@ -5343,7 +9100,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>817</v>
+        <v>1174</v>
       </c>
       <c r="B198">
         <v>50</v>
@@ -5351,7 +9108,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>818</v>
+        <v>1175</v>
       </c>
       <c r="B199">
         <v>50</v>
@@ -5359,15 +9116,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>819</v>
+        <v>1176</v>
       </c>
       <c r="B200">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>820</v>
+        <v>1177</v>
       </c>
       <c r="B201">
         <v>50</v>
@@ -5375,7 +9132,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>821</v>
+        <v>1178</v>
       </c>
       <c r="B202">
         <v>50</v>
@@ -5383,7 +9140,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>822</v>
+        <v>1179</v>
       </c>
       <c r="B203">
         <v>50</v>
@@ -5391,7 +9148,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>823</v>
+        <v>1180</v>
       </c>
       <c r="B204">
         <v>50</v>
@@ -5399,7 +9156,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>824</v>
+        <v>1181</v>
       </c>
       <c r="B205">
         <v>50</v>
@@ -5407,7 +9164,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>825</v>
+        <v>1182</v>
       </c>
       <c r="B206">
         <v>50</v>
@@ -5415,7 +9172,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>826</v>
+        <v>1183</v>
       </c>
       <c r="B207">
         <v>50</v>
@@ -5423,7 +9180,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>827</v>
+        <v>1184</v>
       </c>
       <c r="B208">
         <v>50</v>
@@ -5431,7 +9188,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>828</v>
+        <v>1185</v>
       </c>
       <c r="B209">
         <v>50</v>
@@ -5439,7 +9196,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>829</v>
+        <v>1186</v>
       </c>
       <c r="B210">
         <v>50</v>
@@ -5447,7 +9204,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>830</v>
+        <v>1187</v>
       </c>
       <c r="B211">
         <v>50</v>
@@ -5455,7 +9212,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>831</v>
+        <v>1188</v>
       </c>
       <c r="B212">
         <v>50</v>
@@ -5463,7 +9220,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>832</v>
+        <v>1189</v>
       </c>
       <c r="B213">
         <v>50</v>
@@ -5471,7 +9228,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>833</v>
+        <v>1190</v>
       </c>
       <c r="B214">
         <v>50</v>
@@ -5479,7 +9236,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>834</v>
+        <v>1191</v>
       </c>
       <c r="B215">
         <v>50</v>
@@ -5487,7 +9244,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>835</v>
+        <v>1192</v>
       </c>
       <c r="B216">
         <v>50</v>
@@ -5495,7 +9252,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>836</v>
+        <v>1193</v>
       </c>
       <c r="B217">
         <v>50</v>
@@ -5503,7 +9260,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>837</v>
+        <v>1194</v>
       </c>
       <c r="B218">
         <v>50</v>
@@ -5511,7 +9268,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>838</v>
+        <v>1195</v>
       </c>
       <c r="B219">
         <v>50</v>
@@ -5519,7 +9276,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>839</v>
+        <v>1196</v>
       </c>
       <c r="B220">
         <v>50</v>
@@ -5527,23 +9284,23 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>840</v>
+        <v>1197</v>
       </c>
       <c r="B221">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>841</v>
+        <v>1198</v>
       </c>
       <c r="B222">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>842</v>
+        <v>1199</v>
       </c>
       <c r="B223">
         <v>50</v>
@@ -5551,7 +9308,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>843</v>
+        <v>1200</v>
       </c>
       <c r="B224">
         <v>50</v>
@@ -5559,7 +9316,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>844</v>
+        <v>1201</v>
       </c>
       <c r="B225">
         <v>50</v>
@@ -5567,7 +9324,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>845</v>
+        <v>1202</v>
       </c>
       <c r="B226">
         <v>50</v>
@@ -5575,7 +9332,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>846</v>
+        <v>1203</v>
       </c>
       <c r="B227">
         <v>50</v>
@@ -5583,7 +9340,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>847</v>
+        <v>1204</v>
       </c>
       <c r="B228">
         <v>50</v>
@@ -5591,7 +9348,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>848</v>
+        <v>1205</v>
       </c>
       <c r="B229">
         <v>50</v>
@@ -5599,7 +9356,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>849</v>
+        <v>1206</v>
       </c>
       <c r="B230">
         <v>50</v>
@@ -5607,7 +9364,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>850</v>
+        <v>1207</v>
       </c>
       <c r="B231">
         <v>50</v>
@@ -5615,7 +9372,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>851</v>
+        <v>1208</v>
       </c>
       <c r="B232">
         <v>50</v>
@@ -5623,7 +9380,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>852</v>
+        <v>1209</v>
       </c>
       <c r="B233">
         <v>50</v>
@@ -5631,7 +9388,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>853</v>
+        <v>1210</v>
       </c>
       <c r="B234">
         <v>50</v>
@@ -5639,7 +9396,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>854</v>
+        <v>1211</v>
       </c>
       <c r="B235">
         <v>50</v>
@@ -5647,15 +9404,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>855</v>
+        <v>1212</v>
       </c>
       <c r="B236">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>856</v>
+        <v>1213</v>
       </c>
       <c r="B237">
         <v>50</v>
@@ -5663,7 +9420,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>857</v>
+        <v>1214</v>
       </c>
       <c r="B238">
         <v>50</v>
@@ -5671,7 +9428,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>858</v>
+        <v>1215</v>
       </c>
       <c r="B239">
         <v>50</v>
@@ -5679,7 +9436,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>859</v>
+        <v>1216</v>
       </c>
       <c r="B240">
         <v>50</v>
@@ -5687,15 +9444,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>860</v>
+        <v>1217</v>
       </c>
       <c r="B241">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>861</v>
+        <v>1218</v>
       </c>
       <c r="B242">
         <v>50</v>
@@ -5703,7 +9460,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>862</v>
+        <v>1219</v>
       </c>
       <c r="B243">
         <v>50</v>
@@ -5711,7 +9468,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>863</v>
+        <v>1220</v>
       </c>
       <c r="B244">
         <v>50</v>
@@ -5719,7 +9476,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>864</v>
+        <v>1221</v>
       </c>
       <c r="B245">
         <v>50</v>
@@ -5727,7 +9484,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>865</v>
+        <v>1222</v>
       </c>
       <c r="B246">
         <v>50</v>
@@ -5735,7 +9492,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>866</v>
+        <v>1223</v>
       </c>
       <c r="B247">
         <v>50</v>
@@ -5743,7 +9500,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>867</v>
+        <v>1224</v>
       </c>
       <c r="B248">
         <v>50</v>
@@ -5751,7 +9508,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>868</v>
+        <v>1225</v>
       </c>
       <c r="B249">
         <v>50</v>
@@ -5759,7 +9516,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>869</v>
+        <v>1226</v>
       </c>
       <c r="B250">
         <v>50</v>
@@ -5767,7 +9524,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>870</v>
+        <v>1227</v>
       </c>
       <c r="B251">
         <v>50</v>
@@ -5775,7 +9532,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>871</v>
+        <v>1228</v>
       </c>
       <c r="B252">
         <v>50</v>
@@ -5783,7 +9540,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>872</v>
+        <v>1229</v>
       </c>
       <c r="B253">
         <v>50</v>
@@ -5791,7 +9548,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>873</v>
+        <v>1230</v>
       </c>
       <c r="B254">
         <v>50</v>
@@ -5799,7 +9556,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>874</v>
+        <v>1231</v>
       </c>
       <c r="B255">
         <v>50</v>
@@ -5807,7 +9564,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>875</v>
+        <v>1232</v>
       </c>
       <c r="B256">
         <v>50</v>
@@ -5815,7 +9572,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>876</v>
+        <v>1233</v>
       </c>
       <c r="B257">
         <v>50</v>
@@ -5823,7 +9580,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>877</v>
+        <v>1234</v>
       </c>
       <c r="B258">
         <v>50</v>
@@ -5831,7 +9588,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>878</v>
+        <v>1235</v>
       </c>
       <c r="B259">
         <v>50</v>
@@ -5839,7 +9596,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>879</v>
+        <v>1236</v>
       </c>
       <c r="B260">
         <v>50</v>
@@ -5847,7 +9604,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>880</v>
+        <v>1237</v>
       </c>
       <c r="B261">
         <v>50</v>
@@ -5855,7 +9612,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>881</v>
+        <v>1238</v>
       </c>
       <c r="B262">
         <v>50</v>
@@ -5863,7 +9620,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>882</v>
+        <v>1239</v>
       </c>
       <c r="B263">
         <v>50</v>
@@ -5871,7 +9628,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>883</v>
+        <v>1240</v>
       </c>
       <c r="B264">
         <v>50</v>
@@ -5879,7 +9636,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>884</v>
+        <v>1241</v>
       </c>
       <c r="B265">
         <v>50</v>
@@ -5887,7 +9644,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>885</v>
+        <v>1242</v>
       </c>
       <c r="B266">
         <v>50</v>
@@ -5895,7 +9652,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>886</v>
+        <v>1243</v>
       </c>
       <c r="B267">
         <v>50</v>
@@ -5903,7 +9660,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>887</v>
+        <v>1244</v>
       </c>
       <c r="B268">
         <v>50</v>
@@ -5911,7 +9668,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>888</v>
+        <v>1245</v>
       </c>
       <c r="B269">
         <v>50</v>
@@ -5919,7 +9676,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>889</v>
+        <v>1246</v>
       </c>
       <c r="B270">
         <v>50</v>
@@ -5927,7 +9684,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>890</v>
+        <v>1247</v>
       </c>
       <c r="B271">
         <v>50</v>
@@ -5935,7 +9692,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>891</v>
+        <v>1248</v>
       </c>
       <c r="B272">
         <v>50</v>
@@ -5943,7 +9700,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>892</v>
+        <v>1249</v>
       </c>
       <c r="B273">
         <v>50</v>
@@ -5951,7 +9708,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>893</v>
+        <v>1250</v>
       </c>
       <c r="B274">
         <v>50</v>
@@ -5959,7 +9716,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>894</v>
+        <v>1251</v>
       </c>
       <c r="B275">
         <v>50</v>
@@ -5967,7 +9724,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>895</v>
+        <v>1252</v>
       </c>
       <c r="B276">
         <v>50</v>
@@ -5975,7 +9732,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>896</v>
+        <v>1253</v>
       </c>
       <c r="B277">
         <v>50</v>
@@ -5983,7 +9740,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>897</v>
+        <v>1254</v>
       </c>
       <c r="B278">
         <v>50</v>
@@ -5991,7 +9748,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>898</v>
+        <v>1255</v>
       </c>
       <c r="B279">
         <v>50</v>
@@ -5999,7 +9756,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>899</v>
+        <v>1256</v>
       </c>
       <c r="B280">
         <v>50</v>
@@ -6007,7 +9764,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>900</v>
+        <v>1257</v>
       </c>
       <c r="B281">
         <v>50</v>
@@ -6015,7 +9772,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>901</v>
+        <v>1258</v>
       </c>
       <c r="B282">
         <v>50</v>
@@ -6023,7 +9780,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>902</v>
+        <v>1259</v>
       </c>
       <c r="B283">
         <v>50</v>
@@ -6031,7 +9788,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>903</v>
+        <v>1260</v>
       </c>
       <c r="B284">
         <v>50</v>
@@ -6039,7 +9796,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>904</v>
+        <v>1261</v>
       </c>
       <c r="B285">
         <v>50</v>
@@ -6047,7 +9804,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>905</v>
+        <v>1262</v>
       </c>
       <c r="B286">
         <v>50</v>
@@ -6055,7 +9812,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>906</v>
+        <v>1263</v>
       </c>
       <c r="B287">
         <v>50</v>
@@ -6063,7 +9820,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>907</v>
+        <v>1264</v>
       </c>
       <c r="B288">
         <v>50</v>
@@ -6071,7 +9828,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>908</v>
+        <v>1265</v>
       </c>
       <c r="B289">
         <v>50</v>
@@ -6079,7 +9836,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>909</v>
+        <v>1266</v>
       </c>
       <c r="B290">
         <v>50</v>
@@ -6087,7 +9844,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>910</v>
+        <v>1267</v>
       </c>
       <c r="B291">
         <v>50</v>
@@ -6095,7 +9852,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>911</v>
+        <v>1268</v>
       </c>
       <c r="B292">
         <v>50</v>
@@ -6103,7 +9860,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>912</v>
+        <v>1269</v>
       </c>
       <c r="B293">
         <v>50</v>
@@ -6111,7 +9868,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>913</v>
+        <v>1270</v>
       </c>
       <c r="B294">
         <v>50</v>
@@ -6119,7 +9876,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>914</v>
+        <v>1271</v>
       </c>
       <c r="B295">
         <v>50</v>
@@ -6127,7 +9884,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>915</v>
+        <v>1272</v>
       </c>
       <c r="B296">
         <v>50</v>
@@ -6135,7 +9892,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>916</v>
+        <v>1273</v>
       </c>
       <c r="B297">
         <v>50</v>
@@ -6143,7 +9900,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>917</v>
+        <v>1274</v>
       </c>
       <c r="B298">
         <v>50</v>
@@ -6151,7 +9908,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>918</v>
+        <v>1275</v>
       </c>
       <c r="B299">
         <v>50</v>
@@ -6159,7 +9916,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>919</v>
+        <v>1276</v>
       </c>
       <c r="B300">
         <v>50</v>
@@ -6167,7 +9924,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>920</v>
+        <v>1277</v>
       </c>
       <c r="B301">
         <v>50</v>
@@ -6175,7 +9932,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>921</v>
+        <v>1278</v>
       </c>
       <c r="B302">
         <v>50</v>
@@ -6183,7 +9940,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>922</v>
+        <v>1279</v>
       </c>
       <c r="B303">
         <v>50</v>
@@ -6191,7 +9948,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>923</v>
+        <v>1280</v>
       </c>
       <c r="B304">
         <v>50</v>
@@ -6199,7 +9956,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>924</v>
+        <v>1281</v>
       </c>
       <c r="B305">
         <v>50</v>
@@ -6207,7 +9964,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>925</v>
+        <v>1282</v>
       </c>
       <c r="B306">
         <v>50</v>
@@ -6215,7 +9972,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>926</v>
+        <v>1283</v>
       </c>
       <c r="B307">
         <v>50</v>
@@ -6223,7 +9980,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>927</v>
+        <v>1284</v>
       </c>
       <c r="B308">
         <v>50</v>
@@ -6231,7 +9988,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>928</v>
+        <v>1285</v>
       </c>
       <c r="B309">
         <v>50</v>
@@ -6239,7 +9996,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>929</v>
+        <v>1286</v>
       </c>
       <c r="B310">
         <v>50</v>
@@ -6247,7 +10004,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>930</v>
+        <v>1287</v>
       </c>
       <c r="B311">
         <v>50</v>
@@ -6255,7 +10012,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>931</v>
+        <v>1288</v>
       </c>
       <c r="B312">
         <v>50</v>
@@ -6263,7 +10020,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>932</v>
+        <v>1289</v>
       </c>
       <c r="B313">
         <v>50</v>
@@ -6271,7 +10028,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>933</v>
+        <v>1290</v>
       </c>
       <c r="B314">
         <v>50</v>
@@ -6279,7 +10036,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>934</v>
+        <v>1291</v>
       </c>
       <c r="B315">
         <v>50</v>
@@ -6287,7 +10044,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>935</v>
+        <v>1292</v>
       </c>
       <c r="B316">
         <v>50</v>
@@ -6295,7 +10052,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>936</v>
+        <v>1293</v>
       </c>
       <c r="B317">
         <v>50</v>
@@ -6303,7 +10060,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>937</v>
+        <v>1294</v>
       </c>
       <c r="B318">
         <v>50</v>
@@ -6311,46 +10068,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>938</v>
+        <v>1295</v>
       </c>
       <c r="B319">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>939</v>
-      </c>
-      <c r="B320">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>940</v>
-      </c>
-      <c r="B321">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>941</v>
-      </c>
-      <c r="B322">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>942</v>
-      </c>
-      <c r="B323">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7250,8 +10976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
